--- a/Optimisation data/combined/Biomarkers + Clinical A/top/SHAP/randomforest_optimisation.xlsx
+++ b/Optimisation data/combined/Biomarkers + Clinical A/top/SHAP/randomforest_optimisation.xlsx
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09410076141357422</v>
+        <v>0.1415797710418701</v>
       </c>
       <c r="C2">
-        <v>0.008371632662420142</v>
+        <v>0.01705465182265293</v>
       </c>
       <c r="D2">
-        <v>0.02332587242126465</v>
+        <v>0.03590435981750488</v>
       </c>
       <c r="E2">
-        <v>0.004560159754800271</v>
+        <v>0.005589451523715198</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1586,16 +1586,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1560258865356445</v>
+        <v>0.1492974281311035</v>
       </c>
       <c r="C3">
-        <v>0.01244261490023168</v>
+        <v>0.02164393930316653</v>
       </c>
       <c r="D3">
-        <v>0.02346420288085938</v>
+        <v>0.04297728538513183</v>
       </c>
       <c r="E3">
-        <v>0.001790773086071355</v>
+        <v>0.009754799897367933</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1681,16 +1681,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3773421287536621</v>
+        <v>0.2825902462005615</v>
       </c>
       <c r="C4">
-        <v>0.0411895653319173</v>
+        <v>0.04265843140336568</v>
       </c>
       <c r="D4">
-        <v>0.03731379508972168</v>
+        <v>0.08519020080566406</v>
       </c>
       <c r="E4">
-        <v>0.003864405609410093</v>
+        <v>0.05558027779326891</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1776,16 +1776,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.382133960723877</v>
+        <v>0.3298900604248047</v>
       </c>
       <c r="C5">
-        <v>0.05165485222694353</v>
+        <v>0.06292759619498021</v>
       </c>
       <c r="D5">
-        <v>0.03849220275878906</v>
+        <v>0.0331721305847168</v>
       </c>
       <c r="E5">
-        <v>0.008602618765430559</v>
+        <v>0.003292778682597747</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1871,16 +1871,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4284252643585205</v>
+        <v>0.3836687088012695</v>
       </c>
       <c r="C6">
-        <v>0.05262782022251156</v>
+        <v>0.09394200003068252</v>
       </c>
       <c r="D6">
-        <v>0.0506533145904541</v>
+        <v>0.02815632820129394</v>
       </c>
       <c r="E6">
-        <v>0.007425318512663246</v>
+        <v>0.007025338363334076</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -1966,16 +1966,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4978972911834717</v>
+        <v>0.5289542198181152</v>
       </c>
       <c r="C7">
-        <v>0.04682660185052853</v>
+        <v>0.09979313384805621</v>
       </c>
       <c r="D7">
-        <v>0.04567203521728515</v>
+        <v>0.06244516372680664</v>
       </c>
       <c r="E7">
-        <v>0.009000852504301443</v>
+        <v>0.03132967769179117</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -2061,16 +2061,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6004060268402099</v>
+        <v>0.498734188079834</v>
       </c>
       <c r="C8">
-        <v>0.04541120895867072</v>
+        <v>0.08658346004192501</v>
       </c>
       <c r="D8">
-        <v>0.0693026065826416</v>
+        <v>0.04702835083007813</v>
       </c>
       <c r="E8">
-        <v>0.006798580731970912</v>
+        <v>0.03105375348282509</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -2156,16 +2156,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6642711639404297</v>
+        <v>0.5326254844665528</v>
       </c>
       <c r="C9">
-        <v>0.0314101731811628</v>
+        <v>0.08224696528420564</v>
       </c>
       <c r="D9">
-        <v>0.06533660888671874</v>
+        <v>0.05979819297790527</v>
       </c>
       <c r="E9">
-        <v>0.006661354352746425</v>
+        <v>0.01632773673069527</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -2251,16 +2251,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6964224338531494</v>
+        <v>0.561742639541626</v>
       </c>
       <c r="C10">
-        <v>0.03877006336319018</v>
+        <v>0.04273143293570898</v>
       </c>
       <c r="D10">
-        <v>0.06842408180236817</v>
+        <v>0.06438326835632324</v>
       </c>
       <c r="E10">
-        <v>0.004806613525235753</v>
+        <v>0.01258099606078213</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2346,16 +2346,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.462287664413452</v>
+        <v>0.5772310256958008</v>
       </c>
       <c r="C11">
-        <v>0.747606829069248</v>
+        <v>0.06588661496219873</v>
       </c>
       <c r="D11">
-        <v>0.1843430519104004</v>
+        <v>0.04218692779541015</v>
       </c>
       <c r="E11">
-        <v>0.1852457871326382</v>
+        <v>0.01098539181658325</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2441,16 +2441,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1483511447906494</v>
+        <v>0.08947329521179199</v>
       </c>
       <c r="C12">
-        <v>0.07109392698893584</v>
+        <v>0.00498531104931082</v>
       </c>
       <c r="D12">
-        <v>0.02317228317260742</v>
+        <v>0.06401252746582031</v>
       </c>
       <c r="E12">
-        <v>0.006272190902434971</v>
+        <v>0.02207573338677004</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4781675815582275</v>
+        <v>0.1239786624908447</v>
       </c>
       <c r="C13">
-        <v>0.3866622601531749</v>
+        <v>0.0324413225999339</v>
       </c>
       <c r="D13">
-        <v>0.2085322380065918</v>
+        <v>0.02955985069274902</v>
       </c>
       <c r="E13">
-        <v>0.2359580116871084</v>
+        <v>0.007783511485790606</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -2631,16 +2631,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8819979190826416</v>
+        <v>0.2163902282714844</v>
       </c>
       <c r="C14">
-        <v>0.2291706304662695</v>
+        <v>0.03505305547791588</v>
       </c>
       <c r="D14">
-        <v>0.2952170848846435</v>
+        <v>0.02614674568176269</v>
       </c>
       <c r="E14">
-        <v>0.2424182914597957</v>
+        <v>0.006518372335826224</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -2726,16 +2726,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7322883605957031</v>
+        <v>0.2535051822662354</v>
       </c>
       <c r="C15">
-        <v>0.3638090400632438</v>
+        <v>0.08614124932523697</v>
       </c>
       <c r="D15">
-        <v>0.04108381271362305</v>
+        <v>0.01684794425964355</v>
       </c>
       <c r="E15">
-        <v>0.007087809364787688</v>
+        <v>0.007206284450909267</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -2821,16 +2821,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5160414695739746</v>
+        <v>0.4128786087036133</v>
       </c>
       <c r="C16">
-        <v>0.1442062532390297</v>
+        <v>0.1245521300827652</v>
       </c>
       <c r="D16">
-        <v>0.08381180763244629</v>
+        <v>0.03632416725158692</v>
       </c>
       <c r="E16">
-        <v>0.08341402673118432</v>
+        <v>0.006303352163121455</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2916,16 +2916,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5820102214813232</v>
+        <v>0.4413355350494385</v>
       </c>
       <c r="C17">
-        <v>0.1243522171712885</v>
+        <v>0.1400289469203641</v>
       </c>
       <c r="D17">
-        <v>0.05498065948486328</v>
+        <v>0.03481969833374023</v>
       </c>
       <c r="E17">
-        <v>0.01779622481140287</v>
+        <v>0.013929559444846</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -3011,16 +3011,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6168596267700195</v>
+        <v>0.3318102359771729</v>
       </c>
       <c r="C18">
-        <v>0.04503355237040195</v>
+        <v>0.02425683291145141</v>
       </c>
       <c r="D18">
-        <v>0.05241775512695312</v>
+        <v>0.04069766998291015</v>
       </c>
       <c r="E18">
-        <v>0.01150655333764845</v>
+        <v>0.01808737862013144</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -3106,16 +3106,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7158066749572753</v>
+        <v>0.5648995876312256</v>
       </c>
       <c r="C19">
-        <v>0.05737381891965417</v>
+        <v>0.08565104945210797</v>
       </c>
       <c r="D19">
-        <v>0.08229427337646485</v>
+        <v>0.05115160942077637</v>
       </c>
       <c r="E19">
-        <v>0.03769648506182193</v>
+        <v>0.0146635770177295</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -3201,16 +3201,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.736846923828125</v>
+        <v>0.5619082927703858</v>
       </c>
       <c r="C20">
-        <v>0.04934267323419941</v>
+        <v>0.05898080307568383</v>
       </c>
       <c r="D20">
-        <v>0.06737985610961914</v>
+        <v>0.04523200988769531</v>
       </c>
       <c r="E20">
-        <v>0.01104341862512294</v>
+        <v>0.01461789004750499</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -3296,16 +3296,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.865849781036377</v>
+        <v>0.5147638320922852</v>
       </c>
       <c r="C21">
-        <v>0.0449507514658356</v>
+        <v>0.06932217179498154</v>
       </c>
       <c r="D21">
-        <v>0.0770383358001709</v>
+        <v>0.04410934448242188</v>
       </c>
       <c r="E21">
-        <v>0.006894398564699865</v>
+        <v>0.00825432263483946</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -3391,16 +3391,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1369056224822998</v>
+        <v>0.1146940231323242</v>
       </c>
       <c r="C22">
-        <v>0.03574923652015221</v>
+        <v>0.04345108256944027</v>
       </c>
       <c r="D22">
-        <v>0.02889018058776855</v>
+        <v>0.04427456855773926</v>
       </c>
       <c r="E22">
-        <v>0.007958882103125583</v>
+        <v>0.0381794538603278</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3486,16 +3486,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2630670070648193</v>
+        <v>0.2148636341094971</v>
       </c>
       <c r="C23">
-        <v>0.03136812483593442</v>
+        <v>0.04134774247802298</v>
       </c>
       <c r="D23">
-        <v>0.03137903213500977</v>
+        <v>0.03863201141357422</v>
       </c>
       <c r="E23">
-        <v>0.003081140470797137</v>
+        <v>0.01351234874639035</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -3581,16 +3581,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2915244102478027</v>
+        <v>0.2159350395202637</v>
       </c>
       <c r="C24">
-        <v>0.01919077362305385</v>
+        <v>0.02685172082120033</v>
       </c>
       <c r="D24">
-        <v>0.05671992301940918</v>
+        <v>0.09494204521179199</v>
       </c>
       <c r="E24">
-        <v>0.03651189701842154</v>
+        <v>0.0812677894386994</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -3676,16 +3676,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4992208480834961</v>
+        <v>0.3083556652069092</v>
       </c>
       <c r="C25">
-        <v>0.04825694958928439</v>
+        <v>0.0463923780580894</v>
       </c>
       <c r="D25">
-        <v>0.04872684478759766</v>
+        <v>0.03941001892089844</v>
       </c>
       <c r="E25">
-        <v>0.01783773343788857</v>
+        <v>0.01073035521094107</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -3771,16 +3771,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.6273551464080811</v>
+        <v>0.2859405040740967</v>
       </c>
       <c r="C26">
-        <v>0.1143776474799506</v>
+        <v>0.03622035062295575</v>
       </c>
       <c r="D26">
-        <v>0.0453920841217041</v>
+        <v>0.05780291557312012</v>
       </c>
       <c r="E26">
-        <v>0.009100321808709261</v>
+        <v>0.04834607043722303</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -3866,16 +3866,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5795209884643555</v>
+        <v>0.3675382137298584</v>
       </c>
       <c r="C27">
-        <v>0.1044867776979759</v>
+        <v>0.1088171335671511</v>
       </c>
       <c r="D27">
-        <v>0.05272002220153808</v>
+        <v>0.04241824150085449</v>
       </c>
       <c r="E27">
-        <v>0.01338125471178298</v>
+        <v>0.01286720796839929</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -3961,16 +3961,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.5891128063201905</v>
+        <v>0.4647546291351318</v>
       </c>
       <c r="C28">
-        <v>0.04957213977302073</v>
+        <v>0.07949927778747617</v>
       </c>
       <c r="D28">
-        <v>0.05244922637939453</v>
+        <v>0.1461996555328369</v>
       </c>
       <c r="E28">
-        <v>0.004236374575956846</v>
+        <v>0.1304540305047448</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -4056,16 +4056,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.7388965129852295</v>
+        <v>0.6306748390197754</v>
       </c>
       <c r="C29">
-        <v>0.07844438326353444</v>
+        <v>0.03332040053362229</v>
       </c>
       <c r="D29">
-        <v>0.05747642517089844</v>
+        <v>0.0464785099029541</v>
       </c>
       <c r="E29">
-        <v>0.006426984219940402</v>
+        <v>0.007106519290898557</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -4151,16 +4151,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.797661304473877</v>
+        <v>0.5775825977325439</v>
       </c>
       <c r="C30">
-        <v>0.0551066685747328</v>
+        <v>0.07153810578914614</v>
       </c>
       <c r="D30">
-        <v>0.06710228919982911</v>
+        <v>0.04725360870361328</v>
       </c>
       <c r="E30">
-        <v>0.005291405945029785</v>
+        <v>0.008727071031483121</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -4246,16 +4246,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.8537461757659912</v>
+        <v>1.327504634857178</v>
       </c>
       <c r="C31">
-        <v>0.1080511961750851</v>
+        <v>0.7518328061557498</v>
       </c>
       <c r="D31">
-        <v>0.07192344665527343</v>
+        <v>0.4340760707855225</v>
       </c>
       <c r="E31">
-        <v>0.00347222120509979</v>
+        <v>0.4593397040286139</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -4341,16 +4341,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1318933486938477</v>
+        <v>0.05983991622924804</v>
       </c>
       <c r="C32">
-        <v>0.02427470389880031</v>
+        <v>0.004761703581644253</v>
       </c>
       <c r="D32">
-        <v>0.03648977279663086</v>
+        <v>0.01847715377807617</v>
       </c>
       <c r="E32">
-        <v>0.02426163423749229</v>
+        <v>0.01093885561794024</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -4436,16 +4436,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.220008373260498</v>
+        <v>0.2825870037078858</v>
       </c>
       <c r="C33">
-        <v>0.02290442593413305</v>
+        <v>0.315188873907367</v>
       </c>
       <c r="D33">
-        <v>0.03292455673217774</v>
+        <v>0.160271167755127</v>
       </c>
       <c r="E33">
-        <v>0.007211747921491917</v>
+        <v>0.2575285199914075</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -4531,16 +4531,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.2889036178588867</v>
+        <v>1.727646589279175</v>
       </c>
       <c r="C34">
-        <v>0.01450812849059281</v>
+        <v>0.6490115994850507</v>
       </c>
       <c r="D34">
-        <v>0.04442477226257324</v>
+        <v>0.05195956230163574</v>
       </c>
       <c r="E34">
-        <v>0.008054670116085242</v>
+        <v>0.02188543049068712</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -4626,16 +4626,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3738608837127685</v>
+        <v>0.198638391494751</v>
       </c>
       <c r="C35">
-        <v>0.03936036171308984</v>
+        <v>0.02371046192735623</v>
       </c>
       <c r="D35">
-        <v>0.05071859359741211</v>
+        <v>0.03523387908935547</v>
       </c>
       <c r="E35">
-        <v>0.01272932963885718</v>
+        <v>0.007786352556502272</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -4721,16 +4721,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.453678560256958</v>
+        <v>0.2211234092712402</v>
       </c>
       <c r="C36">
-        <v>0.0365263734315092</v>
+        <v>0.0133854421928178</v>
       </c>
       <c r="D36">
-        <v>0.04476785659790039</v>
+        <v>0.03633236885070801</v>
       </c>
       <c r="E36">
-        <v>0.004412300260498502</v>
+        <v>0.008480171392811386</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -4816,16 +4816,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5437631130218505</v>
+        <v>0.3223605632781982</v>
       </c>
       <c r="C37">
-        <v>0.05563481962404079</v>
+        <v>0.04967032713842049</v>
       </c>
       <c r="D37">
-        <v>0.05997247695922851</v>
+        <v>0.03797998428344727</v>
       </c>
       <c r="E37">
-        <v>0.007607765072383698</v>
+        <v>0.02206270525067112</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -4911,16 +4911,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5984006881713867</v>
+        <v>0.4006498336791992</v>
       </c>
       <c r="C38">
-        <v>0.0325877244509053</v>
+        <v>0.1026417244751403</v>
       </c>
       <c r="D38">
-        <v>0.05540504455566406</v>
+        <v>0.04632353782653809</v>
       </c>
       <c r="E38">
-        <v>0.006768668428607834</v>
+        <v>0.01932033506523855</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -5006,16 +5006,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.7363882064819336</v>
+        <v>0.3528163909912109</v>
       </c>
       <c r="C39">
-        <v>0.08535554996870059</v>
+        <v>0.02532014537846548</v>
       </c>
       <c r="D39">
-        <v>0.06290364265441895</v>
+        <v>0.03952584266662598</v>
       </c>
       <c r="E39">
-        <v>0.008668724827847182</v>
+        <v>0.00677781702928567</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -5101,16 +5101,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.039807558059692</v>
+        <v>0.4011159420013428</v>
       </c>
       <c r="C40">
-        <v>0.9065967029514305</v>
+        <v>0.0204026630645103</v>
       </c>
       <c r="D40">
-        <v>0.1596009731292725</v>
+        <v>0.03856601715087891</v>
       </c>
       <c r="E40">
-        <v>0.07148638522410125</v>
+        <v>0.008003633871486998</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -5196,16 +5196,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3.113538646697998</v>
+        <v>0.4413747787475586</v>
       </c>
       <c r="C41">
-        <v>0.06555716398485922</v>
+        <v>0.08996100942636955</v>
       </c>
       <c r="D41">
-        <v>0.1375667572021484</v>
+        <v>0.03352351188659668</v>
       </c>
       <c r="E41">
-        <v>0.05801616061528166</v>
+        <v>0.009198496605254403</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -5291,16 +5291,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4179703712463379</v>
+        <v>0.06073360443115235</v>
       </c>
       <c r="C42">
-        <v>0.1177379804806562</v>
+        <v>0.008081429823122745</v>
       </c>
       <c r="D42">
-        <v>0.1071662425994873</v>
+        <v>0.01424860954284668</v>
       </c>
       <c r="E42">
-        <v>0.0522686318585345</v>
+        <v>0.003473762968423348</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -5386,16 +5386,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6474978446960449</v>
+        <v>0.0950549602508545</v>
       </c>
       <c r="C43">
-        <v>0.1125540317371079</v>
+        <v>0.01416430752939524</v>
       </c>
       <c r="D43">
-        <v>0.04007492065429687</v>
+        <v>0.0344693660736084</v>
       </c>
       <c r="E43">
-        <v>0.01179777559940737</v>
+        <v>0.01833849558638948</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -5481,16 +5481,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.4375740051269531</v>
+        <v>0.1678137302398682</v>
       </c>
       <c r="C44">
-        <v>0.05436148620943033</v>
+        <v>0.0324453140112775</v>
       </c>
       <c r="D44">
-        <v>0.03880577087402344</v>
+        <v>0.03153853416442871</v>
       </c>
       <c r="E44">
-        <v>0.007995067473800067</v>
+        <v>0.01973973691210162</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -5576,16 +5576,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5227446556091309</v>
+        <v>0.4251133441925049</v>
       </c>
       <c r="C45">
-        <v>0.0428480886842787</v>
+        <v>0.05622971080839095</v>
       </c>
       <c r="D45">
-        <v>0.05189962387084961</v>
+        <v>0.04399223327636718</v>
       </c>
       <c r="E45">
-        <v>0.009503127889705514</v>
+        <v>0.0150776108418007</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -5671,16 +5671,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5098665714263916</v>
+        <v>0.3437488555908203</v>
       </c>
       <c r="C46">
-        <v>0.03954303443931923</v>
+        <v>0.08801051079561929</v>
       </c>
       <c r="D46">
-        <v>0.05615711212158203</v>
+        <v>0.03435769081115723</v>
       </c>
       <c r="E46">
-        <v>0.008024484098838429</v>
+        <v>0.01870087684232571</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -5766,16 +5766,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5274916648864746</v>
+        <v>0.2618234634399414</v>
       </c>
       <c r="C47">
-        <v>0.008237395526083153</v>
+        <v>0.03199571943896799</v>
       </c>
       <c r="D47">
-        <v>0.06047315597534179</v>
+        <v>0.02088947296142578</v>
       </c>
       <c r="E47">
-        <v>0.01331197191240196</v>
+        <v>0.007404519419916757</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -5861,16 +5861,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6441323757171631</v>
+        <v>0.4219815731048584</v>
       </c>
       <c r="C48">
-        <v>0.05519745885018944</v>
+        <v>0.1198318627765777</v>
       </c>
       <c r="D48">
-        <v>0.05932278633117676</v>
+        <v>0.03732786178588867</v>
       </c>
       <c r="E48">
-        <v>0.01156876383216401</v>
+        <v>0.01075794067984164</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -5956,16 +5956,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.7316211223602295</v>
+        <v>0.5306580543518067</v>
       </c>
       <c r="C49">
-        <v>0.04332490479915575</v>
+        <v>0.1454377763260308</v>
       </c>
       <c r="D49">
-        <v>0.06314349174499512</v>
+        <v>0.03225269317626953</v>
       </c>
       <c r="E49">
-        <v>0.004692487170598576</v>
+        <v>0.009177685483323112</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -6051,16 +6051,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.7444331169128418</v>
+        <v>0.600398063659668</v>
       </c>
       <c r="C50">
-        <v>0.03595572770064873</v>
+        <v>0.04844321705062802</v>
       </c>
       <c r="D50">
-        <v>0.06673493385314941</v>
+        <v>0.03635983467102051</v>
       </c>
       <c r="E50">
-        <v>0.009901712692277362</v>
+        <v>0.004274460581638818</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -6146,16 +6146,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9790478229522706</v>
+        <v>0.5434089660644531</v>
       </c>
       <c r="C51">
-        <v>0.07726942231610537</v>
+        <v>0.2241960545386539</v>
       </c>
       <c r="D51">
-        <v>0.07537841796875</v>
+        <v>0.04397883415222168</v>
       </c>
       <c r="E51">
-        <v>0.009851304584638679</v>
+        <v>0.01826099863544405</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -6241,16 +6241,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1221274852752686</v>
+        <v>0.1009893894195557</v>
       </c>
       <c r="C52">
-        <v>0.01049813362235793</v>
+        <v>0.03134682146486782</v>
       </c>
       <c r="D52">
-        <v>0.03719673156738281</v>
+        <v>0.04329123497009277</v>
       </c>
       <c r="E52">
-        <v>0.0246343484469768</v>
+        <v>0.02110668142941912</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -6336,16 +6336,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.272885274887085</v>
+        <v>0.1662891387939453</v>
       </c>
       <c r="C53">
-        <v>0.04531901325591894</v>
+        <v>0.0559820214809579</v>
       </c>
       <c r="D53">
-        <v>0.03997468948364258</v>
+        <v>0.02713460922241211</v>
       </c>
       <c r="E53">
-        <v>0.01287359781136155</v>
+        <v>0.01834198935516934</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -6431,16 +6431,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.3175337791442871</v>
+        <v>0.1720573425292969</v>
       </c>
       <c r="C54">
-        <v>0.07105718661987533</v>
+        <v>0.04734265838048511</v>
       </c>
       <c r="D54">
-        <v>0.03874711990356446</v>
+        <v>0.02703499794006348</v>
       </c>
       <c r="E54">
-        <v>0.01072254257140905</v>
+        <v>0.01630263452604296</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -6526,16 +6526,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.3896291255950928</v>
+        <v>0.2389532089233398</v>
       </c>
       <c r="C55">
-        <v>0.04828985678929901</v>
+        <v>0.04510833796043639</v>
       </c>
       <c r="D55">
-        <v>0.04514093399047851</v>
+        <v>0.03710904121398926</v>
       </c>
       <c r="E55">
-        <v>0.00275205051813205</v>
+        <v>0.0273706484301656</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -6621,16 +6621,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.4811801433563233</v>
+        <v>0.3132710933685303</v>
       </c>
       <c r="C56">
-        <v>0.02305274688701642</v>
+        <v>0.1432946095723407</v>
       </c>
       <c r="D56">
-        <v>0.05765542984008789</v>
+        <v>0.0286895751953125</v>
       </c>
       <c r="E56">
-        <v>0.005466481707561687</v>
+        <v>0.01534597092945106</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -6716,16 +6716,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.5274514198303223</v>
+        <v>0.5351728916168212</v>
       </c>
       <c r="C57">
-        <v>0.02505975446843209</v>
+        <v>0.03590898286344185</v>
       </c>
       <c r="D57">
-        <v>0.0520444393157959</v>
+        <v>0.02513041496276856</v>
       </c>
       <c r="E57">
-        <v>0.005828214509366361</v>
+        <v>0.004968627834479392</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -6811,16 +6811,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6597575187683106</v>
+        <v>0.4072211742401123</v>
       </c>
       <c r="C58">
-        <v>0.02330870115372029</v>
+        <v>0.03567834215988732</v>
       </c>
       <c r="D58">
-        <v>0.05949220657348633</v>
+        <v>0.04042329788208008</v>
       </c>
       <c r="E58">
-        <v>0.008672596202552221</v>
+        <v>0.01282170024903826</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -6906,16 +6906,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.7846539974212646</v>
+        <v>0.3680414199829102</v>
       </c>
       <c r="C59">
-        <v>0.05924939254215592</v>
+        <v>0.02778257643809162</v>
       </c>
       <c r="D59">
-        <v>0.05694842338562012</v>
+        <v>0.02686467170715332</v>
       </c>
       <c r="E59">
-        <v>0.001273512834691604</v>
+        <v>0.004896192743296919</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -7001,16 +7001,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.8627644538879394</v>
+        <v>0.401109504699707</v>
       </c>
       <c r="C60">
-        <v>0.07513067290601581</v>
+        <v>0.03848486640057355</v>
       </c>
       <c r="D60">
-        <v>0.06014199256896972</v>
+        <v>0.05461578369140625</v>
       </c>
       <c r="E60">
-        <v>0.004865772863165727</v>
+        <v>0.02047776915716434</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -7096,16 +7096,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.068960237503052</v>
+        <v>0.5366676330566407</v>
       </c>
       <c r="C61">
-        <v>0.0595884657970624</v>
+        <v>0.1445249295663272</v>
       </c>
       <c r="D61">
-        <v>0.0745363712310791</v>
+        <v>0.06713304519653321</v>
       </c>
       <c r="E61">
-        <v>0.003405291651478851</v>
+        <v>0.04017501922662211</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -7191,16 +7191,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1672061920166016</v>
+        <v>0.07264556884765624</v>
       </c>
       <c r="C62">
-        <v>0.02462792517124547</v>
+        <v>0.009836183950507395</v>
       </c>
       <c r="D62">
-        <v>0.03893685340881348</v>
+        <v>0.0448568344116211</v>
       </c>
       <c r="E62">
-        <v>0.02928872069251521</v>
+        <v>0.02950897016691818</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -7286,16 +7286,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.2601300716400147</v>
+        <v>0.1545261383056641</v>
       </c>
       <c r="C63">
-        <v>0.05215875106211777</v>
+        <v>0.06496886949118456</v>
       </c>
       <c r="D63">
-        <v>0.03695554733276367</v>
+        <v>0.03714609146118164</v>
       </c>
       <c r="E63">
-        <v>0.01138674327843828</v>
+        <v>0.03444067079515015</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -7381,16 +7381,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.2900428771972656</v>
+        <v>0.1564850330352783</v>
       </c>
       <c r="C64">
-        <v>0.03363639135792286</v>
+        <v>0.0504325304414116</v>
       </c>
       <c r="D64">
-        <v>0.03717513084411621</v>
+        <v>0.02368578910827637</v>
       </c>
       <c r="E64">
-        <v>0.003947673424598981</v>
+        <v>0.01202453715921588</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -7476,16 +7476,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.391230058670044</v>
+        <v>0.291369104385376</v>
       </c>
       <c r="C65">
-        <v>0.0312828937852784</v>
+        <v>0.07054412956018934</v>
       </c>
       <c r="D65">
-        <v>0.04566793441772461</v>
+        <v>0.03714776039123535</v>
       </c>
       <c r="E65">
-        <v>0.008178318990594105</v>
+        <v>0.00643368705888665</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -7571,16 +7571,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.4800954341888428</v>
+        <v>0.2235594749450684</v>
       </c>
       <c r="C66">
-        <v>0.06783644621839811</v>
+        <v>0.01855589446497176</v>
       </c>
       <c r="D66">
-        <v>0.05318732261657715</v>
+        <v>0.03982911109924316</v>
       </c>
       <c r="E66">
-        <v>0.00636328707730555</v>
+        <v>0.03722060686042223</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -7666,16 +7666,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5823202133178711</v>
+        <v>0.4283411502838135</v>
       </c>
       <c r="C67">
-        <v>0.05345497260413282</v>
+        <v>0.1058069494407888</v>
       </c>
       <c r="D67">
-        <v>0.05334868431091309</v>
+        <v>0.06387109756469726</v>
       </c>
       <c r="E67">
-        <v>0.008838160930811859</v>
+        <v>0.03838983541919636</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -7761,16 +7761,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.6372408390045166</v>
+        <v>0.3986562728881836</v>
       </c>
       <c r="C68">
-        <v>0.04352348676639484</v>
+        <v>0.1072958443514934</v>
       </c>
       <c r="D68">
-        <v>0.08369073867797852</v>
+        <v>0.03366222381591797</v>
       </c>
       <c r="E68">
-        <v>0.03354903264845525</v>
+        <v>0.006898969041486033</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
@@ -7856,16 +7856,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.7277864933013916</v>
+        <v>0.4845908164978027</v>
       </c>
       <c r="C69">
-        <v>0.02525404678172696</v>
+        <v>0.02611137038474742</v>
       </c>
       <c r="D69">
-        <v>0.06059222221374512</v>
+        <v>0.03734273910522461</v>
       </c>
       <c r="E69">
-        <v>0.005922881743754621</v>
+        <v>0.01369214993005781</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
@@ -7951,16 +7951,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.851546335220337</v>
+        <v>0.5252618312835693</v>
       </c>
       <c r="C70">
-        <v>0.06889707732886552</v>
+        <v>0.05487771238303434</v>
       </c>
       <c r="D70">
-        <v>0.0660475730895996</v>
+        <v>0.05481119155883789</v>
       </c>
       <c r="E70">
-        <v>0.004009731773919894</v>
+        <v>0.006712576970775552</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
@@ -8046,16 +8046,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.998667573928833</v>
+        <v>0.5922625064849854</v>
       </c>
       <c r="C71">
-        <v>0.1312969023417817</v>
+        <v>0.07641218100119469</v>
       </c>
       <c r="D71">
-        <v>0.0809718132019043</v>
+        <v>0.0330047607421875</v>
       </c>
       <c r="E71">
-        <v>0.01722923916405321</v>
+        <v>0.02006010281358045</v>
       </c>
       <c r="F71" t="b">
         <v>1</v>
@@ -8141,16 +8141,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1421291828155518</v>
+        <v>0.08886475563049316</v>
       </c>
       <c r="C72">
-        <v>0.03066830933553212</v>
+        <v>0.04544672105510906</v>
       </c>
       <c r="D72">
-        <v>0.03393959999084473</v>
+        <v>0.02629246711730957</v>
       </c>
       <c r="E72">
-        <v>0.01178287724322788</v>
+        <v>0.02841690501417186</v>
       </c>
       <c r="F72" t="b">
         <v>1</v>
@@ -8236,16 +8236,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.2601913928985596</v>
+        <v>0.1500446796417236</v>
       </c>
       <c r="C73">
-        <v>0.05632433857840879</v>
+        <v>0.06487730652275303</v>
       </c>
       <c r="D73">
-        <v>0.03099398612976074</v>
+        <v>0.02158617973327637</v>
       </c>
       <c r="E73">
-        <v>0.007745406213486403</v>
+        <v>0.01089905475429355</v>
       </c>
       <c r="F73" t="b">
         <v>1</v>
@@ -8331,16 +8331,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.2876822948455811</v>
+        <v>0.1946787357330322</v>
       </c>
       <c r="C74">
-        <v>0.02331491765047805</v>
+        <v>0.03362865016416997</v>
       </c>
       <c r="D74">
-        <v>0.03647475242614746</v>
+        <v>0.02905154228210449</v>
       </c>
       <c r="E74">
-        <v>0.004065505429769039</v>
+        <v>0.009400795042278497</v>
       </c>
       <c r="F74" t="b">
         <v>1</v>
@@ -8426,16 +8426,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.3673277378082275</v>
+        <v>0.1922194480895996</v>
       </c>
       <c r="C75">
-        <v>0.05652907036254235</v>
+        <v>0.02102267347860683</v>
       </c>
       <c r="D75">
-        <v>0.06879363059997559</v>
+        <v>0.03980016708374023</v>
       </c>
       <c r="E75">
-        <v>0.039501308328223</v>
+        <v>0.03440807257951069</v>
       </c>
       <c r="F75" t="b">
         <v>1</v>
@@ -8521,16 +8521,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.4323032855987549</v>
+        <v>0.2623806953430176</v>
       </c>
       <c r="C76">
-        <v>0.03995472817468401</v>
+        <v>0.07599417239409156</v>
       </c>
       <c r="D76">
-        <v>0.04498476982116699</v>
+        <v>0.02870292663574219</v>
       </c>
       <c r="E76">
-        <v>0.005385189311130499</v>
+        <v>0.01558908857029625</v>
       </c>
       <c r="F76" t="b">
         <v>1</v>
@@ -8616,16 +8616,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5805120468139648</v>
+        <v>0.304239559173584</v>
       </c>
       <c r="C77">
-        <v>0.06175881537640578</v>
+        <v>0.02023833647365087</v>
       </c>
       <c r="D77">
-        <v>0.05208396911621094</v>
+        <v>0.03047852516174316</v>
       </c>
       <c r="E77">
-        <v>0.006291077769681062</v>
+        <v>0.01165148816164907</v>
       </c>
       <c r="F77" t="b">
         <v>1</v>
@@ -8711,16 +8711,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6825426578521728</v>
+        <v>0.3898201942443847</v>
       </c>
       <c r="C78">
-        <v>0.03879486909355038</v>
+        <v>0.0406242803357101</v>
       </c>
       <c r="D78">
-        <v>0.08419213294982911</v>
+        <v>0.03797802925109863</v>
       </c>
       <c r="E78">
-        <v>0.06563120296846728</v>
+        <v>0.02263679064056776</v>
       </c>
       <c r="F78" t="b">
         <v>1</v>
@@ -8806,16 +8806,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.7727475166320801</v>
+        <v>0.4437634944915771</v>
       </c>
       <c r="C79">
-        <v>0.08251460216802468</v>
+        <v>0.0477322951824919</v>
       </c>
       <c r="D79">
-        <v>0.05464363098144531</v>
+        <v>0.0383847713470459</v>
       </c>
       <c r="E79">
-        <v>0.002846375705217316</v>
+        <v>0.02266344430965549</v>
       </c>
       <c r="F79" t="b">
         <v>1</v>
@@ -8901,16 +8901,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8388866901397705</v>
+        <v>0.4532458782196045</v>
       </c>
       <c r="C80">
-        <v>0.05105556831287521</v>
+        <v>0.05781233046234841</v>
       </c>
       <c r="D80">
-        <v>0.06191534996032715</v>
+        <v>0.04309725761413574</v>
       </c>
       <c r="E80">
-        <v>0.002141974978528732</v>
+        <v>0.007247060747780978</v>
       </c>
       <c r="F80" t="b">
         <v>1</v>
@@ -8996,16 +8996,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.006293869018555</v>
+        <v>0.6294660091400146</v>
       </c>
       <c r="C81">
-        <v>0.1435426215965626</v>
+        <v>0.167428001885333</v>
       </c>
       <c r="D81">
-        <v>0.07377638816833496</v>
+        <v>0.03517584800720215</v>
       </c>
       <c r="E81">
-        <v>0.00477459631556366</v>
+        <v>0.004583323632747387</v>
       </c>
       <c r="F81" t="b">
         <v>1</v>
@@ -9091,16 +9091,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1497176170349121</v>
+        <v>0.05799579620361328</v>
       </c>
       <c r="C82">
-        <v>0.04254452286027809</v>
+        <v>0.003881142791798582</v>
       </c>
       <c r="D82">
-        <v>0.02669177055358887</v>
+        <v>0.01808280944824219</v>
       </c>
       <c r="E82">
-        <v>0.01110021964516942</v>
+        <v>0.003244710281014644</v>
       </c>
       <c r="F82" t="b">
         <v>1</v>
@@ -9186,16 +9186,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.2760601997375488</v>
+        <v>0.225070333480835</v>
       </c>
       <c r="C83">
-        <v>0.07076576548403413</v>
+        <v>0.1125211822658534</v>
       </c>
       <c r="D83">
-        <v>0.03211898803710937</v>
+        <v>0.04668936729431152</v>
       </c>
       <c r="E83">
-        <v>0.005849876482586491</v>
+        <v>0.03578481040270558</v>
       </c>
       <c r="F83" t="b">
         <v>1</v>
@@ -9281,16 +9281,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.3294630527496338</v>
+        <v>0.1733120441436768</v>
       </c>
       <c r="C84">
-        <v>0.02056188989745036</v>
+        <v>0.03597920876638243</v>
       </c>
       <c r="D84">
-        <v>0.03561511039733887</v>
+        <v>0.02772712707519531</v>
       </c>
       <c r="E84">
-        <v>0.001971463786218553</v>
+        <v>0.002893004315840221</v>
       </c>
       <c r="F84" t="b">
         <v>1</v>
@@ -9376,16 +9376,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4073537349700928</v>
+        <v>0.2247929096221924</v>
       </c>
       <c r="C85">
-        <v>0.04165782383068992</v>
+        <v>0.03301803885081493</v>
       </c>
       <c r="D85">
-        <v>0.04825019836425781</v>
+        <v>0.03810415267944336</v>
       </c>
       <c r="E85">
-        <v>0.006118967198978898</v>
+        <v>0.009421536274279777</v>
       </c>
       <c r="F85" t="b">
         <v>1</v>
@@ -9471,16 +9471,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4738934516906738</v>
+        <v>0.3956654071807861</v>
       </c>
       <c r="C86">
-        <v>0.05740384762011961</v>
+        <v>0.2372012326451304</v>
       </c>
       <c r="D86">
-        <v>0.04624676704406738</v>
+        <v>0.03817276954650879</v>
       </c>
       <c r="E86">
-        <v>0.004049958325885467</v>
+        <v>0.02244413920985946</v>
       </c>
       <c r="F86" t="b">
         <v>1</v>
@@ -9566,16 +9566,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5994097709655761</v>
+        <v>0.6492313385009766</v>
       </c>
       <c r="C87">
-        <v>0.03845748945916654</v>
+        <v>0.02194859238903258</v>
       </c>
       <c r="D87">
-        <v>0.04821581840515136</v>
+        <v>0.05789203643798828</v>
       </c>
       <c r="E87">
-        <v>0.005577429171509543</v>
+        <v>0.01653590424433309</v>
       </c>
       <c r="F87" t="b">
         <v>1</v>
@@ -9661,16 +9661,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.6647403240203857</v>
+        <v>0.4685128211975098</v>
       </c>
       <c r="C88">
-        <v>0.06729589651931216</v>
+        <v>0.1296018960113458</v>
       </c>
       <c r="D88">
-        <v>0.05563678741455078</v>
+        <v>0.03940014839172364</v>
       </c>
       <c r="E88">
-        <v>0.002218667381544525</v>
+        <v>0.01966107850907797</v>
       </c>
       <c r="F88" t="b">
         <v>1</v>
@@ -9756,16 +9756,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.7684143543243408</v>
+        <v>0.4853156566619873</v>
       </c>
       <c r="C89">
-        <v>0.05237161583325441</v>
+        <v>0.05594525841155763</v>
       </c>
       <c r="D89">
-        <v>0.06099286079406738</v>
+        <v>0.0341029167175293</v>
       </c>
       <c r="E89">
-        <v>0.008898902352515873</v>
+        <v>0.01014186738939149</v>
       </c>
       <c r="F89" t="b">
         <v>1</v>
@@ -9851,16 +9851,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.092308330535889</v>
+        <v>0.3978971481323242</v>
       </c>
       <c r="C90">
-        <v>0.07705372299117252</v>
+        <v>0.03503874161255235</v>
       </c>
       <c r="D90">
-        <v>0.06749863624572754</v>
+        <v>0.07341585159301758</v>
       </c>
       <c r="E90">
-        <v>0.00498779271379645</v>
+        <v>0.04519379685874807</v>
       </c>
       <c r="F90" t="b">
         <v>1</v>
@@ -9946,16 +9946,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.28859601020813</v>
+        <v>0.71990065574646</v>
       </c>
       <c r="C91">
-        <v>0.1718575974476015</v>
+        <v>0.1844344631937793</v>
       </c>
       <c r="D91">
-        <v>0.07983846664428711</v>
+        <v>0.04513492584228516</v>
       </c>
       <c r="E91">
-        <v>0.01264913987201545</v>
+        <v>0.02976636877774085</v>
       </c>
       <c r="F91" t="b">
         <v>1</v>
@@ -10041,16 +10041,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.1815623760223389</v>
+        <v>0.07101421356201172</v>
       </c>
       <c r="C92">
-        <v>0.07399138918382749</v>
+        <v>0.0255198515599949</v>
       </c>
       <c r="D92">
-        <v>0.0315821647644043</v>
+        <v>0.02911362648010254</v>
       </c>
       <c r="E92">
-        <v>0.0115960142750946</v>
+        <v>0.01935839152546006</v>
       </c>
       <c r="F92" t="b">
         <v>1</v>
@@ -10136,16 +10136,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.304811429977417</v>
+        <v>0.2072364807128906</v>
       </c>
       <c r="C93">
-        <v>0.03430490748250693</v>
+        <v>0.1017628363625204</v>
       </c>
       <c r="D93">
-        <v>0.03867421150207519</v>
+        <v>0.1603372097015381</v>
       </c>
       <c r="E93">
-        <v>0.006449034054551868</v>
+        <v>0.09941994415541527</v>
       </c>
       <c r="F93" t="b">
         <v>1</v>
@@ -10231,16 +10231,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.3415178775787354</v>
+        <v>0.2446087837219238</v>
       </c>
       <c r="C94">
-        <v>0.03288680379298792</v>
+        <v>0.04479229353422473</v>
       </c>
       <c r="D94">
-        <v>0.05600805282592773</v>
+        <v>0.03771729469299316</v>
       </c>
       <c r="E94">
-        <v>0.03152802182284228</v>
+        <v>0.01463974651912925</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -10326,16 +10326,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4802335262298584</v>
+        <v>0.2747646331787109</v>
       </c>
       <c r="C95">
-        <v>0.05997714298891496</v>
+        <v>0.0367290999187317</v>
       </c>
       <c r="D95">
-        <v>0.03741521835327148</v>
+        <v>0.0324307918548584</v>
       </c>
       <c r="E95">
-        <v>0.004852739170287771</v>
+        <v>0.005878081698612541</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -10421,16 +10421,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5860417366027832</v>
+        <v>0.2503427505493164</v>
       </c>
       <c r="C96">
-        <v>0.06801223036952535</v>
+        <v>0.03290468266111429</v>
       </c>
       <c r="D96">
-        <v>0.06519050598144531</v>
+        <v>0.03291773796081543</v>
       </c>
       <c r="E96">
-        <v>0.02339589460307457</v>
+        <v>0.01013580464441527</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -10516,16 +10516,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.932944917678833</v>
+        <v>0.2974849224090576</v>
       </c>
       <c r="C97">
-        <v>0.2591277915315896</v>
+        <v>0.02012606231976764</v>
       </c>
       <c r="D97">
-        <v>0.06970582008361817</v>
+        <v>0.02314586639404297</v>
       </c>
       <c r="E97">
-        <v>0.02211978957472201</v>
+        <v>0.003598802405427978</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -10611,16 +10611,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.405196142196655</v>
+        <v>0.3962954998016358</v>
       </c>
       <c r="C98">
-        <v>0.0669010160200126</v>
+        <v>0.04240599485276055</v>
       </c>
       <c r="D98">
-        <v>0.05458707809448242</v>
+        <v>0.06021347045898438</v>
       </c>
       <c r="E98">
-        <v>0.009167313509738576</v>
+        <v>0.03110660728984501</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -10706,16 +10706,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.23616042137146</v>
+        <v>0.3989616870880127</v>
       </c>
       <c r="C99">
-        <v>0.2248560141591048</v>
+        <v>0.0598214940898311</v>
       </c>
       <c r="D99">
-        <v>0.06986517906188965</v>
+        <v>0.07586402893066406</v>
       </c>
       <c r="E99">
-        <v>0.01608396228241309</v>
+        <v>0.0414697177534727</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -10801,16 +10801,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.461943578720093</v>
+        <v>0.4589345455169678</v>
       </c>
       <c r="C100">
-        <v>0.2571011202829561</v>
+        <v>0.03952008573348673</v>
       </c>
       <c r="D100">
-        <v>0.08453640937805176</v>
+        <v>0.07412676811218262</v>
       </c>
       <c r="E100">
-        <v>0.04853228526346585</v>
+        <v>0.04496635953941055</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -10896,16 +10896,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.453279542922974</v>
+        <v>0.6501665592193604</v>
       </c>
       <c r="C101">
-        <v>0.217236536499262</v>
+        <v>0.1404147555944617</v>
       </c>
       <c r="D101">
-        <v>0.08591012954711914</v>
+        <v>0.04293565750122071</v>
       </c>
       <c r="E101">
-        <v>0.02642205599520092</v>
+        <v>0.01129994776970258</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -10991,16 +10991,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1406221389770508</v>
+        <v>0.08633861541748047</v>
       </c>
       <c r="C102">
-        <v>0.006175182372213738</v>
+        <v>0.02413108360274677</v>
       </c>
       <c r="D102">
-        <v>0.0260213851928711</v>
+        <v>0.02434859275817871</v>
       </c>
       <c r="E102">
-        <v>0.01147325384270807</v>
+        <v>0.0226201263015218</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -11086,16 +11086,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.2960337162017822</v>
+        <v>0.2080626964569092</v>
       </c>
       <c r="C103">
-        <v>0.1041119014121116</v>
+        <v>0.08780749118061704</v>
       </c>
       <c r="D103">
-        <v>0.06409125328063965</v>
+        <v>0.05419635772705078</v>
       </c>
       <c r="E103">
-        <v>0.02149687378751189</v>
+        <v>0.05411599257349814</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -11181,16 +11181,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.6306347370147705</v>
+        <v>0.3177030086517334</v>
       </c>
       <c r="C104">
-        <v>0.07477911692382914</v>
+        <v>0.1260856649856461</v>
       </c>
       <c r="D104">
-        <v>0.03534269332885742</v>
+        <v>0.03636784553527832</v>
       </c>
       <c r="E104">
-        <v>0.007127313611601057</v>
+        <v>0.01510083238789081</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -11276,16 +11276,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.6067505836486816</v>
+        <v>0.2231359481811523</v>
       </c>
       <c r="C105">
-        <v>0.07156085024847508</v>
+        <v>0.04264853277309914</v>
       </c>
       <c r="D105">
-        <v>0.0369814395904541</v>
+        <v>0.03223705291748047</v>
       </c>
       <c r="E105">
-        <v>0.006224073151801806</v>
+        <v>0.01024880158556922</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -11371,16 +11371,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.6650296688079834</v>
+        <v>0.2994359493255615</v>
       </c>
       <c r="C106">
-        <v>0.0243613218304216</v>
+        <v>0.02686350850041654</v>
       </c>
       <c r="D106">
-        <v>0.1008502960205078</v>
+        <v>0.03159031867980957</v>
       </c>
       <c r="E106">
-        <v>0.1068688536082712</v>
+        <v>0.008478446836946821</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -11466,16 +11466,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.8339033126831055</v>
+        <v>0.4315596580505371</v>
       </c>
       <c r="C107">
-        <v>0.06764298065498663</v>
+        <v>0.08808205092513395</v>
       </c>
       <c r="D107">
-        <v>0.04876341819763184</v>
+        <v>0.02516994476318359</v>
       </c>
       <c r="E107">
-        <v>0.007190281432145842</v>
+        <v>0.00770092247233635</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -11561,16 +11561,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.215467977523804</v>
+        <v>0.559364128112793</v>
       </c>
       <c r="C108">
-        <v>0.0994962941102536</v>
+        <v>0.2214931501694837</v>
       </c>
       <c r="D108">
-        <v>0.04741206169128418</v>
+        <v>0.03313260078430176</v>
       </c>
       <c r="E108">
-        <v>0.00453872195480592</v>
+        <v>0.0178596981846544</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -11656,16 +11656,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.219203186035156</v>
+        <v>0.6179718494415283</v>
       </c>
       <c r="C109">
-        <v>0.1238289705298402</v>
+        <v>0.02101781702015528</v>
       </c>
       <c r="D109">
-        <v>0.05234661102294922</v>
+        <v>0.02725210189819336</v>
       </c>
       <c r="E109">
-        <v>0.003862833404534498</v>
+        <v>0.00724177286515029</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -11751,16 +11751,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.060493946075439</v>
+        <v>0.4796286582946777</v>
       </c>
       <c r="C110">
-        <v>0.09017486209506044</v>
+        <v>0.04577091404988509</v>
       </c>
       <c r="D110">
-        <v>0.05994586944580078</v>
+        <v>0.05248198509216308</v>
       </c>
       <c r="E110">
-        <v>0.006313582589364334</v>
+        <v>0.03684290484605267</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -11846,16 +11846,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.158821535110474</v>
+        <v>0.4196615695953369</v>
       </c>
       <c r="C111">
-        <v>0.05259554344317096</v>
+        <v>0.06253571476161104</v>
       </c>
       <c r="D111">
-        <v>0.06988101005554199</v>
+        <v>0.0311312198638916</v>
       </c>
       <c r="E111">
-        <v>0.002361637326570696</v>
+        <v>0.006369103093404747</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -11941,16 +11941,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.1580922603607178</v>
+        <v>0.0925142765045166</v>
       </c>
       <c r="C112">
-        <v>0.03167899740084968</v>
+        <v>0.03608188015897367</v>
       </c>
       <c r="D112">
-        <v>0.05949068069458008</v>
+        <v>0.02024292945861816</v>
       </c>
       <c r="E112">
-        <v>0.01967817569481656</v>
+        <v>0.0131472326670083</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -12036,16 +12036,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.2934576511383057</v>
+        <v>0.1770052433013916</v>
       </c>
       <c r="C113">
-        <v>0.04081795703871145</v>
+        <v>0.06917487675506895</v>
       </c>
       <c r="D113">
-        <v>0.02705698013305664</v>
+        <v>0.02831029891967773</v>
       </c>
       <c r="E113">
-        <v>0.00266515778573509</v>
+        <v>0.03214045370589266</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -12131,16 +12131,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.3780045986175537</v>
+        <v>0.2293302536010742</v>
       </c>
       <c r="C114">
-        <v>0.03058183866207904</v>
+        <v>0.05411282459593053</v>
       </c>
       <c r="D114">
-        <v>0.03366923332214355</v>
+        <v>0.03693537712097168</v>
       </c>
       <c r="E114">
-        <v>0.003964825986174922</v>
+        <v>0.01519180621217846</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -12226,16 +12226,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.5431478023529053</v>
+        <v>0.2317951679229736</v>
       </c>
       <c r="C115">
-        <v>0.07417841227249782</v>
+        <v>0.05125307424664508</v>
       </c>
       <c r="D115">
-        <v>0.07319631576538085</v>
+        <v>0.02799558639526367</v>
       </c>
       <c r="E115">
-        <v>0.08084922369400491</v>
+        <v>0.02199613770217164</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -12321,16 +12321,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.7377144813537597</v>
+        <v>0.3298077583312988</v>
       </c>
       <c r="C116">
-        <v>0.1117895234895205</v>
+        <v>0.06139350836669231</v>
       </c>
       <c r="D116">
-        <v>0.04251561164855957</v>
+        <v>0.03977322578430176</v>
       </c>
       <c r="E116">
-        <v>0.005872902734346046</v>
+        <v>0.04283072140689738</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -12416,16 +12416,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.8660627841949463</v>
+        <v>0.3589569091796875</v>
       </c>
       <c r="C117">
-        <v>0.06235608844866058</v>
+        <v>0.03387421367662892</v>
       </c>
       <c r="D117">
-        <v>0.0446876049041748</v>
+        <v>0.05627446174621582</v>
       </c>
       <c r="E117">
-        <v>0.002025162432910955</v>
+        <v>0.04497738631207918</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
@@ -12511,16 +12511,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.8060282707214356</v>
+        <v>0.3783742427825928</v>
       </c>
       <c r="C118">
-        <v>0.09553601878836779</v>
+        <v>0.05527592198678941</v>
       </c>
       <c r="D118">
-        <v>0.04475240707397461</v>
+        <v>0.02396378517150879</v>
       </c>
       <c r="E118">
-        <v>0.002807594979013066</v>
+        <v>0.01134527461388328</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -12606,16 +12606,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.879398775100708</v>
+        <v>0.409804105758667</v>
       </c>
       <c r="C119">
-        <v>0.0677262389704746</v>
+        <v>0.01316856883802455</v>
       </c>
       <c r="D119">
-        <v>0.05542426109313965</v>
+        <v>0.03542580604553223</v>
       </c>
       <c r="E119">
-        <v>0.004543865689268157</v>
+        <v>0.008565905768630273</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -12701,16 +12701,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.025175762176514</v>
+        <v>0.4381029605865479</v>
       </c>
       <c r="C120">
-        <v>0.161335700189038</v>
+        <v>0.0515615481948455</v>
       </c>
       <c r="D120">
-        <v>0.05677704811096192</v>
+        <v>0.04264640808105469</v>
       </c>
       <c r="E120">
-        <v>0.005196622033816259</v>
+        <v>0.01815269556778369</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -12796,16 +12796,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.396493148803711</v>
+        <v>0.473961877822876</v>
       </c>
       <c r="C121">
-        <v>0.1411580145669555</v>
+        <v>0.01895303329033893</v>
       </c>
       <c r="D121">
-        <v>0.08059730529785156</v>
+        <v>0.03768429756164551</v>
       </c>
       <c r="E121">
-        <v>0.01036051345060684</v>
+        <v>0.01420709740136889</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
@@ -12891,16 +12891,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.2721325874328613</v>
+        <v>0.09715886116027832</v>
       </c>
       <c r="C122">
-        <v>0.1002323838574071</v>
+        <v>0.03017388285988391</v>
       </c>
       <c r="D122">
-        <v>0.04396181106567383</v>
+        <v>0.01478238105773926</v>
       </c>
       <c r="E122">
-        <v>0.03514938134547147</v>
+        <v>0.004078464030124528</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
@@ -12986,16 +12986,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.3457406520843506</v>
+        <v>0.1025594234466553</v>
       </c>
       <c r="C123">
-        <v>0.05243722636385264</v>
+        <v>0.01041197396938444</v>
       </c>
       <c r="D123">
-        <v>0.02529020309448242</v>
+        <v>0.01696858406066894</v>
       </c>
       <c r="E123">
-        <v>0.001393485780487944</v>
+        <v>0.001677956087540755</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
@@ -13081,16 +13081,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4319252490997315</v>
+        <v>0.148385763168335</v>
       </c>
       <c r="C124">
-        <v>0.05417501270590908</v>
+        <v>0.01009178933631062</v>
       </c>
       <c r="D124">
-        <v>0.02843914031982422</v>
+        <v>0.04417524337768555</v>
       </c>
       <c r="E124">
-        <v>0.006596749122409588</v>
+        <v>0.01733664499127975</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
@@ -13176,16 +13176,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5946012496948242</v>
+        <v>0.2311786651611328</v>
       </c>
       <c r="C125">
-        <v>0.1496446307759205</v>
+        <v>0.04811399385926204</v>
       </c>
       <c r="D125">
-        <v>0.05212550163269043</v>
+        <v>0.04413881301879883</v>
       </c>
       <c r="E125">
-        <v>0.03429180437977997</v>
+        <v>0.02509082857642466</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
@@ -13271,16 +13271,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.8871130466461181</v>
+        <v>0.2935166835784912</v>
       </c>
       <c r="C126">
-        <v>0.1393781956340382</v>
+        <v>0.05702519959491652</v>
       </c>
       <c r="D126">
-        <v>0.04285168647766113</v>
+        <v>0.03629493713378906</v>
       </c>
       <c r="E126">
-        <v>0.00320536848687212</v>
+        <v>0.03445094122903515</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
@@ -13366,16 +13366,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.129165029525757</v>
+        <v>0.3475875377655029</v>
       </c>
       <c r="C127">
-        <v>0.02693698836774256</v>
+        <v>0.04058981512489188</v>
       </c>
       <c r="D127">
-        <v>0.04567174911499024</v>
+        <v>0.02841377258300781</v>
       </c>
       <c r="E127">
-        <v>0.007117395643031707</v>
+        <v>0.0179325538730248</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -13461,16 +13461,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.207273626327515</v>
+        <v>0.3678193569183349</v>
       </c>
       <c r="C128">
-        <v>0.107851120135844</v>
+        <v>0.04683673317452216</v>
       </c>
       <c r="D128">
-        <v>0.05695176124572754</v>
+        <v>0.02846837043762207</v>
       </c>
       <c r="E128">
-        <v>0.008200187459042156</v>
+        <v>0.01166016892469275</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -13556,16 +13556,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.256081819534302</v>
+        <v>0.4898369789123535</v>
       </c>
       <c r="C129">
-        <v>0.071313774970669</v>
+        <v>0.02261190261474715</v>
       </c>
       <c r="D129">
-        <v>0.05141177177429199</v>
+        <v>0.03915839195251465</v>
       </c>
       <c r="E129">
-        <v>0.003578953345529282</v>
+        <v>0.02655689675763879</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
@@ -13651,16 +13651,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.180346202850342</v>
+        <v>0.4519725799560547</v>
       </c>
       <c r="C130">
-        <v>0.08246018499201475</v>
+        <v>0.008647020000214859</v>
       </c>
       <c r="D130">
-        <v>0.06076817512512207</v>
+        <v>0.05998334884643555</v>
       </c>
       <c r="E130">
-        <v>0.0008131979470014083</v>
+        <v>0.04733438842913657</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -13746,16 +13746,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.683626317977905</v>
+        <v>0.4545797348022461</v>
       </c>
       <c r="C131">
-        <v>0.153437446818492</v>
+        <v>0.0330882676569269</v>
       </c>
       <c r="D131">
-        <v>0.09326071739196777</v>
+        <v>0.04448566436767578</v>
       </c>
       <c r="E131">
-        <v>0.0373088378172232</v>
+        <v>0.03738073419275939</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -13841,16 +13841,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1433289527893066</v>
+        <v>0.1039839744567871</v>
       </c>
       <c r="C132">
-        <v>0.01036665801873208</v>
+        <v>0.05425978272634444</v>
       </c>
       <c r="D132">
-        <v>0.02377943992614746</v>
+        <v>0.02043156623840332</v>
       </c>
       <c r="E132">
-        <v>0.002428962828218704</v>
+        <v>0.01907514014965767</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -13936,16 +13936,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.467643928527832</v>
+        <v>0.1327171802520752</v>
       </c>
       <c r="C133">
-        <v>0.1298873153706553</v>
+        <v>0.06981072715723607</v>
       </c>
       <c r="D133">
-        <v>0.04110932350158691</v>
+        <v>0.03891606330871582</v>
       </c>
       <c r="E133">
-        <v>0.02020586334411701</v>
+        <v>0.02165607957500099</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -14031,16 +14031,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.8181428432464599</v>
+        <v>0.1709569931030273</v>
       </c>
       <c r="C134">
-        <v>0.1344892773943668</v>
+        <v>0.02768176433092492</v>
       </c>
       <c r="D134">
-        <v>0.02792472839355469</v>
+        <v>0.03975377082824707</v>
       </c>
       <c r="E134">
-        <v>0.004871198131513539</v>
+        <v>0.01478749400857459</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -14126,16 +14126,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.6704460144042969</v>
+        <v>0.4673754215240479</v>
       </c>
       <c r="C135">
-        <v>0.1194423969027001</v>
+        <v>0.1525904118434367</v>
       </c>
       <c r="D135">
-        <v>0.05036234855651855</v>
+        <v>0.1936513423919678</v>
       </c>
       <c r="E135">
-        <v>0.008014191925508545</v>
+        <v>0.2633016944709007</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -14221,16 +14221,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.349211931228638</v>
+        <v>1.518141460418701</v>
       </c>
       <c r="C136">
-        <v>0.5610478873190894</v>
+        <v>1.573847276627784</v>
       </c>
       <c r="D136">
-        <v>0.2049117565155029</v>
+        <v>0.21734619140625</v>
       </c>
       <c r="E136">
-        <v>0.1132117249757797</v>
+        <v>0.1894321024387824</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -14316,16 +14316,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>3.046373128890991</v>
+        <v>3.073677539825439</v>
       </c>
       <c r="C137">
-        <v>0.34036161246672</v>
+        <v>0.8820821908238767</v>
       </c>
       <c r="D137">
-        <v>0.8859886646270752</v>
+        <v>0.7351877689361572</v>
       </c>
       <c r="E137">
-        <v>0.5668593650850925</v>
+        <v>0.6368756116294234</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -14411,16 +14411,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>3.130087995529175</v>
+        <v>1.876793956756592</v>
       </c>
       <c r="C138">
-        <v>0.6641512726619632</v>
+        <v>0.9486284312581749</v>
       </c>
       <c r="D138">
-        <v>0.1396445274353027</v>
+        <v>0.06194877624511719</v>
       </c>
       <c r="E138">
-        <v>0.03917071137010365</v>
+        <v>0.01744908773962919</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -14506,16 +14506,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>2.011161422729492</v>
+        <v>1.33872275352478</v>
       </c>
       <c r="C139">
-        <v>0.1079387559354383</v>
+        <v>0.3415280788953151</v>
       </c>
       <c r="D139">
-        <v>0.08531126976013184</v>
+        <v>0.08407683372497558</v>
       </c>
       <c r="E139">
-        <v>0.0437169509724832</v>
+        <v>0.02668428270260513</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -14601,16 +14601,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>2.28318862915039</v>
+        <v>1.769085359573364</v>
       </c>
       <c r="C140">
-        <v>0.1623668360557334</v>
+        <v>0.02813995837772227</v>
       </c>
       <c r="D140">
-        <v>0.1603961944580078</v>
+        <v>0.0633364200592041</v>
       </c>
       <c r="E140">
-        <v>0.1376026731655045</v>
+        <v>0.02030254651101124</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -14696,16 +14696,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>2.964758348464966</v>
+        <v>1.469798851013184</v>
       </c>
       <c r="C141">
-        <v>0.2513732314646749</v>
+        <v>0.261422242239218</v>
       </c>
       <c r="D141">
-        <v>0.1263746738433838</v>
+        <v>0.04353375434875488</v>
       </c>
       <c r="E141">
-        <v>0.05974398578992485</v>
+        <v>0.01935157534717951</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -14791,16 +14791,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.5673705577850342</v>
+        <v>0.1324664115905762</v>
       </c>
       <c r="C142">
-        <v>0.08074850429099555</v>
+        <v>0.0303595919251639</v>
       </c>
       <c r="D142">
-        <v>0.05048055648803711</v>
+        <v>0.02413558959960938</v>
       </c>
       <c r="E142">
-        <v>0.02595359376687128</v>
+        <v>0.009158375070619455</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -14886,16 +14886,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.441814661026001</v>
+        <v>0.2250070571899414</v>
       </c>
       <c r="C143">
-        <v>0.07322958937454019</v>
+        <v>0.1000406821001737</v>
       </c>
       <c r="D143">
-        <v>0.03202700614929199</v>
+        <v>0.05544157028198242</v>
       </c>
       <c r="E143">
-        <v>0.005193173781018345</v>
+        <v>0.03750703905541822</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
@@ -14981,16 +14981,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.6650444030761719</v>
+        <v>0.3466763019561768</v>
       </c>
       <c r="C144">
-        <v>0.04838561603513381</v>
+        <v>0.09894981199379341</v>
       </c>
       <c r="D144">
-        <v>0.06151237487792969</v>
+        <v>0.06040110588073731</v>
       </c>
       <c r="E144">
-        <v>0.04203440914051807</v>
+        <v>0.03141153047550594</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -15076,16 +15076,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.856162166595459</v>
+        <v>0.3497529029846191</v>
       </c>
       <c r="C145">
-        <v>0.1017668214804998</v>
+        <v>0.03633460624026304</v>
       </c>
       <c r="D145">
-        <v>0.04660463333129883</v>
+        <v>0.03843297958374024</v>
       </c>
       <c r="E145">
-        <v>0.01481129247494452</v>
+        <v>0.02174559466717462</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -15171,16 +15171,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9460322380065918</v>
+        <v>0.3569468498229981</v>
       </c>
       <c r="C146">
-        <v>0.144025610655983</v>
+        <v>0.04174923717939873</v>
       </c>
       <c r="D146">
-        <v>0.05310096740722656</v>
+        <v>0.03828363418579102</v>
       </c>
       <c r="E146">
-        <v>0.01804097698973238</v>
+        <v>0.01480923227826308</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>
@@ -15266,16 +15266,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9570223808288574</v>
+        <v>0.4032270908355713</v>
       </c>
       <c r="C147">
-        <v>0.1582656324900388</v>
+        <v>0.01970545941923385</v>
       </c>
       <c r="D147">
-        <v>0.0627716064453125</v>
+        <v>0.02946634292602539</v>
       </c>
       <c r="E147">
-        <v>0.02385631720035408</v>
+        <v>0.007176995297640961</v>
       </c>
       <c r="F147" t="b">
         <v>1</v>
@@ -15361,16 +15361,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.182007122039795</v>
+        <v>0.4157556056976318</v>
       </c>
       <c r="C148">
-        <v>0.06584883605721206</v>
+        <v>0.03243205467500251</v>
       </c>
       <c r="D148">
-        <v>0.04929280281066895</v>
+        <v>0.03624472618103027</v>
       </c>
       <c r="E148">
-        <v>0.008375000608575408</v>
+        <v>0.01646476098265209</v>
       </c>
       <c r="F148" t="b">
         <v>1</v>
@@ -15456,16 +15456,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.460255765914917</v>
+        <v>0.4072552680969238</v>
       </c>
       <c r="C149">
-        <v>0.1015528661032895</v>
+        <v>0.03746527913240231</v>
       </c>
       <c r="D149">
-        <v>0.06001076698303223</v>
+        <v>0.03525390625</v>
       </c>
       <c r="E149">
-        <v>0.008942917767386602</v>
+        <v>0.004687040270327194</v>
       </c>
       <c r="F149" t="b">
         <v>1</v>
@@ -15551,16 +15551,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.525321578979492</v>
+        <v>0.859102439880371</v>
       </c>
       <c r="C150">
-        <v>0.1144562454562572</v>
+        <v>0.06541175698356377</v>
       </c>
       <c r="D150">
-        <v>0.06220822334289551</v>
+        <v>0.02882308959960938</v>
       </c>
       <c r="E150">
-        <v>0.005070043864020436</v>
+        <v>0.004999623290438486</v>
       </c>
       <c r="F150" t="b">
         <v>1</v>
@@ -15646,16 +15646,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>2.040426063537597</v>
+        <v>0.7600519180297851</v>
       </c>
       <c r="C151">
-        <v>0.2236783813012754</v>
+        <v>0.09619008400424373</v>
       </c>
       <c r="D151">
-        <v>0.08485321998596192</v>
+        <v>0.02442493438720703</v>
       </c>
       <c r="E151">
-        <v>0.01859811906959802</v>
+        <v>0.004271993437483358</v>
       </c>
       <c r="F151" t="b">
         <v>1</v>
@@ -15741,16 +15741,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1672939300537109</v>
+        <v>0.07395195960998535</v>
       </c>
       <c r="C152">
-        <v>0.03157951592761116</v>
+        <v>0.02857044497743644</v>
       </c>
       <c r="D152">
-        <v>0.03887972831726074</v>
+        <v>0.02867879867553711</v>
       </c>
       <c r="E152">
-        <v>0.03091534208320513</v>
+        <v>0.01951531130338116</v>
       </c>
       <c r="F152" t="b">
         <v>1</v>
@@ -15836,16 +15836,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.6335910797119141</v>
+        <v>0.1289032936096191</v>
       </c>
       <c r="C153">
-        <v>0.1006633914973701</v>
+        <v>0.03808177877544637</v>
       </c>
       <c r="D153">
-        <v>0.03608884811401367</v>
+        <v>0.02066707611083984</v>
       </c>
       <c r="E153">
-        <v>0.01961050127728156</v>
+        <v>0.008358486414536844</v>
       </c>
       <c r="F153" t="b">
         <v>1</v>
@@ -15931,16 +15931,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.6522355079650879</v>
+        <v>0.1844482898712158</v>
       </c>
       <c r="C154">
-        <v>0.1319439575464499</v>
+        <v>0.02685644392456525</v>
       </c>
       <c r="D154">
-        <v>0.03382759094238282</v>
+        <v>0.02415862083435059</v>
       </c>
       <c r="E154">
-        <v>0.007320848172137741</v>
+        <v>0.006804593636737783</v>
       </c>
       <c r="F154" t="b">
         <v>1</v>
@@ -16026,16 +16026,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5882198810577393</v>
+        <v>0.3438692092895508</v>
       </c>
       <c r="C155">
-        <v>0.08703565811190934</v>
+        <v>0.09077980174724734</v>
       </c>
       <c r="D155">
-        <v>0.03580918312072754</v>
+        <v>0.06530508995056153</v>
       </c>
       <c r="E155">
-        <v>0.003525456739305005</v>
+        <v>0.03689180133520105</v>
       </c>
       <c r="F155" t="b">
         <v>1</v>
@@ -16121,16 +16121,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.7125487804412842</v>
+        <v>0.3636201381683349</v>
       </c>
       <c r="C156">
-        <v>0.0904461070995171</v>
+        <v>0.08790303346635336</v>
       </c>
       <c r="D156">
-        <v>0.03904690742492676</v>
+        <v>0.03634834289550781</v>
       </c>
       <c r="E156">
-        <v>0.003413433018792936</v>
+        <v>0.02643160739614156</v>
       </c>
       <c r="F156" t="b">
         <v>1</v>
@@ -16216,16 +16216,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.9368010044097901</v>
+        <v>0.318983268737793</v>
       </c>
       <c r="C157">
-        <v>0.09393999825294874</v>
+        <v>0.07982876371297488</v>
       </c>
       <c r="D157">
-        <v>0.04362263679504395</v>
+        <v>0.03004083633422851</v>
       </c>
       <c r="E157">
-        <v>0.005130892070077721</v>
+        <v>0.01307071975795332</v>
       </c>
       <c r="F157" t="b">
         <v>1</v>
@@ -16311,16 +16311,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.108536815643311</v>
+        <v>0.58151273727417</v>
       </c>
       <c r="C158">
-        <v>0.0838365983858758</v>
+        <v>0.07170575109176497</v>
       </c>
       <c r="D158">
-        <v>0.04856405258178711</v>
+        <v>0.03468527793884277</v>
       </c>
       <c r="E158">
-        <v>0.005362268876945665</v>
+        <v>0.01959228035782019</v>
       </c>
       <c r="F158" t="b">
         <v>1</v>
@@ -16406,16 +16406,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.428276872634888</v>
+        <v>0.6206510066986084</v>
       </c>
       <c r="C159">
-        <v>0.1267944180814674</v>
+        <v>0.09421021301973286</v>
       </c>
       <c r="D159">
-        <v>0.06165189743041992</v>
+        <v>0.04283628463745117</v>
       </c>
       <c r="E159">
-        <v>0.006182808123542754</v>
+        <v>0.01924414426018391</v>
       </c>
       <c r="F159" t="b">
         <v>1</v>
@@ -16501,16 +16501,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>2.24649133682251</v>
+        <v>0.6200587749481201</v>
       </c>
       <c r="C160">
-        <v>0.257331139732775</v>
+        <v>0.06673775953628627</v>
       </c>
       <c r="D160">
-        <v>0.130465030670166</v>
+        <v>0.02834458351135254</v>
       </c>
       <c r="E160">
-        <v>0.105054800814243</v>
+        <v>0.01062811320139599</v>
       </c>
       <c r="F160" t="b">
         <v>1</v>
@@ -16596,16 +16596,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>2.687623786926269</v>
+        <v>0.5895776748657227</v>
       </c>
       <c r="C161">
-        <v>0.2631346373678951</v>
+        <v>0.07692710929524793</v>
       </c>
       <c r="D161">
-        <v>0.1116597175598145</v>
+        <v>0.03516678810119629</v>
       </c>
       <c r="E161">
-        <v>0.03796764367423458</v>
+        <v>0.004858864481255712</v>
       </c>
       <c r="F161" t="b">
         <v>1</v>
@@ -16691,16 +16691,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5044560909271241</v>
+        <v>0.07136878967285157</v>
       </c>
       <c r="C162">
-        <v>0.1078406513629491</v>
+        <v>0.01245287450167713</v>
       </c>
       <c r="D162">
-        <v>0.03078298568725586</v>
+        <v>0.02730598449707031</v>
       </c>
       <c r="E162">
-        <v>0.01597239041116728</v>
+        <v>0.01597196582218421</v>
       </c>
       <c r="F162" t="b">
         <v>1</v>
@@ -16786,16 +16786,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.3158085346221924</v>
+        <v>0.1987581729888916</v>
       </c>
       <c r="C163">
-        <v>0.02520453771010653</v>
+        <v>0.0327848174692327</v>
       </c>
       <c r="D163">
-        <v>0.03819384574890137</v>
+        <v>0.02814960479736328</v>
       </c>
       <c r="E163">
-        <v>0.009537546980599519</v>
+        <v>0.01139207073795797</v>
       </c>
       <c r="F163" t="b">
         <v>1</v>
@@ -16881,16 +16881,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.6003115177154541</v>
+        <v>0.1987728595733643</v>
       </c>
       <c r="C164">
-        <v>0.07689932245756882</v>
+        <v>0.05568396004198672</v>
       </c>
       <c r="D164">
-        <v>0.03874635696411133</v>
+        <v>0.0391416072845459</v>
       </c>
       <c r="E164">
-        <v>0.01268239184888017</v>
+        <v>0.01692368294415548</v>
       </c>
       <c r="F164" t="b">
         <v>1</v>
@@ -16976,16 +16976,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.9287414073944091</v>
+        <v>0.2377813816070557</v>
       </c>
       <c r="C165">
-        <v>0.05068596148050524</v>
+        <v>0.0525903731650157</v>
       </c>
       <c r="D165">
-        <v>0.05201516151428223</v>
+        <v>0.02305760383605957</v>
       </c>
       <c r="E165">
-        <v>0.01963340716128082</v>
+        <v>0.009118783408943613</v>
       </c>
       <c r="F165" t="b">
         <v>1</v>
@@ -17071,16 +17071,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.036730670928955</v>
+        <v>0.3856670379638672</v>
       </c>
       <c r="C166">
-        <v>0.1490921393611132</v>
+        <v>0.1492655300529412</v>
       </c>
       <c r="D166">
-        <v>0.04436593055725098</v>
+        <v>0.05181074142456055</v>
       </c>
       <c r="E166">
-        <v>0.004381692429866675</v>
+        <v>0.03872432457864465</v>
       </c>
       <c r="F166" t="b">
         <v>1</v>
@@ -17166,16 +17166,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.07707314491272</v>
+        <v>0.4188295841217041</v>
       </c>
       <c r="C167">
-        <v>0.08143871606354383</v>
+        <v>0.1005717991626613</v>
       </c>
       <c r="D167">
-        <v>0.06083402633666992</v>
+        <v>0.05018014907836914</v>
       </c>
       <c r="E167">
-        <v>0.03491190064694676</v>
+        <v>0.01778226122590332</v>
       </c>
       <c r="F167" t="b">
         <v>1</v>
@@ -17261,16 +17261,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.493538665771484</v>
+        <v>0.6223840713500977</v>
       </c>
       <c r="C168">
-        <v>0.1075468484345836</v>
+        <v>0.1714566185638049</v>
       </c>
       <c r="D168">
-        <v>0.06453194618225097</v>
+        <v>0.02509393692016602</v>
       </c>
       <c r="E168">
-        <v>0.01128834748632925</v>
+        <v>0.009570113560778071</v>
       </c>
       <c r="F168" t="b">
         <v>1</v>
@@ -17356,16 +17356,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.622033071517944</v>
+        <v>0.5659007549285888</v>
       </c>
       <c r="C169">
-        <v>0.1651201456202468</v>
+        <v>0.1270179922535883</v>
       </c>
       <c r="D169">
-        <v>0.06266627311706544</v>
+        <v>0.03177318572998047</v>
       </c>
       <c r="E169">
-        <v>0.00671820147535464</v>
+        <v>0.01063560258574851</v>
       </c>
       <c r="F169" t="b">
         <v>1</v>
@@ -17451,16 +17451,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.638059997558594</v>
+        <v>0.5760622501373291</v>
       </c>
       <c r="C170">
-        <v>0.07754533685886257</v>
+        <v>0.05991914731622914</v>
       </c>
       <c r="D170">
-        <v>0.0604466438293457</v>
+        <v>0.05950002670288086</v>
       </c>
       <c r="E170">
-        <v>0.000679002628433613</v>
+        <v>0.05579472716785099</v>
       </c>
       <c r="F170" t="b">
         <v>1</v>
@@ -17546,16 +17546,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.547245311737061</v>
+        <v>0.915319299697876</v>
       </c>
       <c r="C171">
-        <v>0.07674978666168646</v>
+        <v>0.1309216287561308</v>
       </c>
       <c r="D171">
-        <v>0.06603465080261231</v>
+        <v>0.04542450904846192</v>
       </c>
       <c r="E171">
-        <v>0.009486562736603166</v>
+        <v>0.01412106805563052</v>
       </c>
       <c r="F171" t="b">
         <v>1</v>
@@ -17641,16 +17641,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.2322177410125733</v>
+        <v>0.0684896469116211</v>
       </c>
       <c r="C172">
-        <v>0.1002433605014017</v>
+        <v>0.01054896102741601</v>
       </c>
       <c r="D172">
-        <v>0.04030103683471679</v>
+        <v>0.03230752944946289</v>
       </c>
       <c r="E172">
-        <v>0.02587142100277488</v>
+        <v>0.01799988391881036</v>
       </c>
       <c r="F172" t="b">
         <v>1</v>
@@ -17736,16 +17736,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.3170961380004883</v>
+        <v>0.2784097671508789</v>
       </c>
       <c r="C173">
-        <v>0.05170355658532699</v>
+        <v>0.04876325563343145</v>
       </c>
       <c r="D173">
-        <v>0.03202543258666992</v>
+        <v>0.04483909606933593</v>
       </c>
       <c r="E173">
-        <v>0.009010998871934675</v>
+        <v>0.03190021079884736</v>
       </c>
       <c r="F173" t="b">
         <v>1</v>
@@ -17831,16 +17831,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.4258787631988525</v>
+        <v>0.2770662784576416</v>
       </c>
       <c r="C174">
-        <v>0.06361860540371921</v>
+        <v>0.08315654429594228</v>
       </c>
       <c r="D174">
-        <v>0.02975921630859375</v>
+        <v>0.0320953369140625</v>
       </c>
       <c r="E174">
-        <v>0.00266141237828871</v>
+        <v>0.01583814310636293</v>
       </c>
       <c r="F174" t="b">
         <v>1</v>
@@ -17926,16 +17926,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.5225265026092529</v>
+        <v>0.2703643798828125</v>
       </c>
       <c r="C175">
-        <v>0.07834968326425949</v>
+        <v>0.07055175963828025</v>
       </c>
       <c r="D175">
-        <v>0.04106912612915039</v>
+        <v>0.06907444000244141</v>
       </c>
       <c r="E175">
-        <v>0.004508746901664373</v>
+        <v>0.06965307945760467</v>
       </c>
       <c r="F175" t="b">
         <v>1</v>
@@ -18021,16 +18021,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.644074821472168</v>
+        <v>0.3721538066864014</v>
       </c>
       <c r="C176">
-        <v>0.1211766883419345</v>
+        <v>0.03388276342025504</v>
       </c>
       <c r="D176">
-        <v>0.04464426040649414</v>
+        <v>0.03019828796386719</v>
       </c>
       <c r="E176">
-        <v>0.00331557813337407</v>
+        <v>0.007480790638393863</v>
       </c>
       <c r="F176" t="b">
         <v>1</v>
@@ -18116,16 +18116,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.7758478164672852</v>
+        <v>0.4473015785217285</v>
       </c>
       <c r="C177">
-        <v>0.1188371121964683</v>
+        <v>0.04886619595164201</v>
       </c>
       <c r="D177">
-        <v>0.04698939323425293</v>
+        <v>0.03705716133117676</v>
       </c>
       <c r="E177">
-        <v>0.007683953533206356</v>
+        <v>0.01782831249061551</v>
       </c>
       <c r="F177" t="b">
         <v>1</v>
@@ -18211,16 +18211,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.039900493621826</v>
+        <v>0.4646843433380127</v>
       </c>
       <c r="C178">
-        <v>0.06039941364258963</v>
+        <v>0.02379788374680771</v>
       </c>
       <c r="D178">
-        <v>0.04887056350708008</v>
+        <v>0.02996783256530762</v>
       </c>
       <c r="E178">
-        <v>0.002581168132354834</v>
+        <v>0.008275420557977848</v>
       </c>
       <c r="F178" t="b">
         <v>1</v>
@@ -18306,16 +18306,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.282074975967407</v>
+        <v>0.5294311046600342</v>
       </c>
       <c r="C179">
-        <v>0.1688044722395763</v>
+        <v>0.1207237288405266</v>
       </c>
       <c r="D179">
-        <v>0.05570564270019531</v>
+        <v>0.05909028053283692</v>
       </c>
       <c r="E179">
-        <v>0.00162265882669821</v>
+        <v>0.02384473916649346</v>
       </c>
       <c r="F179" t="b">
         <v>1</v>
@@ -18401,16 +18401,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.290712070465088</v>
+        <v>0.5708897590637207</v>
       </c>
       <c r="C180">
-        <v>0.09757071383404027</v>
+        <v>0.0973539840841092</v>
       </c>
       <c r="D180">
-        <v>0.1204495429992676</v>
+        <v>0.05066385269165039</v>
       </c>
       <c r="E180">
-        <v>0.1065370062966512</v>
+        <v>0.04296032162841982</v>
       </c>
       <c r="F180" t="b">
         <v>1</v>
@@ -18496,16 +18496,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.544009399414062</v>
+        <v>0.7478143692016601</v>
       </c>
       <c r="C181">
-        <v>0.2051994135624651</v>
+        <v>0.1202545906750588</v>
       </c>
       <c r="D181">
-        <v>0.06963214874267579</v>
+        <v>0.04068984985351563</v>
       </c>
       <c r="E181">
-        <v>0.004586270578554903</v>
+        <v>0.02212017679228288</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -18591,16 +18591,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.1431282043457031</v>
+        <v>0.08594036102294922</v>
       </c>
       <c r="C182">
-        <v>0.02476052932665996</v>
+        <v>0.03430110669086799</v>
       </c>
       <c r="D182">
-        <v>0.03017005920410156</v>
+        <v>0.01773757934570313</v>
       </c>
       <c r="E182">
-        <v>0.006820626687685133</v>
+        <v>0.012185356439549</v>
       </c>
       <c r="F182" t="b">
         <v>1</v>
@@ -18686,16 +18686,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.3229416370391845</v>
+        <v>0.126326847076416</v>
       </c>
       <c r="C183">
-        <v>0.0813318499019454</v>
+        <v>0.04555639283737061</v>
       </c>
       <c r="D183">
-        <v>0.03285355567932129</v>
+        <v>0.008072423934936523</v>
       </c>
       <c r="E183">
-        <v>0.01177485786014677</v>
+        <v>0.001184079026050662</v>
       </c>
       <c r="F183" t="b">
         <v>1</v>
@@ -18781,16 +18781,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.4834561824798584</v>
+        <v>0.2792501926422119</v>
       </c>
       <c r="C184">
-        <v>0.05746852832220107</v>
+        <v>0.08177577222663378</v>
       </c>
       <c r="D184">
-        <v>0.03520908355712891</v>
+        <v>0.03829436302185059</v>
       </c>
       <c r="E184">
-        <v>0.007387315712248966</v>
+        <v>0.0209633068176976</v>
       </c>
       <c r="F184" t="b">
         <v>1</v>
@@ -18876,16 +18876,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.590686845779419</v>
+        <v>0.3213921070098877</v>
       </c>
       <c r="C185">
-        <v>0.07702896680210301</v>
+        <v>0.06414994152399789</v>
       </c>
       <c r="D185">
-        <v>0.03749871253967285</v>
+        <v>0.01761665344238281</v>
       </c>
       <c r="E185">
-        <v>0.002583324828208068</v>
+        <v>0.003363562598605721</v>
       </c>
       <c r="F185" t="b">
         <v>1</v>
@@ -18971,16 +18971,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.7188750267028808</v>
+        <v>0.3469280242919922</v>
       </c>
       <c r="C186">
-        <v>0.08911895481326297</v>
+        <v>0.06685990886776423</v>
       </c>
       <c r="D186">
-        <v>0.06618905067443848</v>
+        <v>0.02543816566467285</v>
       </c>
       <c r="E186">
-        <v>0.03705489951735181</v>
+        <v>0.009385072226230107</v>
       </c>
       <c r="F186" t="b">
         <v>1</v>
@@ -19066,16 +19066,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9081096172332763</v>
+        <v>0.3711591243743896</v>
       </c>
       <c r="C187">
-        <v>0.0660978701636226</v>
+        <v>0.01151105488002034</v>
       </c>
       <c r="D187">
-        <v>0.07764439582824707</v>
+        <v>0.04637289047241211</v>
       </c>
       <c r="E187">
-        <v>0.04452397692201483</v>
+        <v>0.01356809338652691</v>
       </c>
       <c r="F187" t="b">
         <v>1</v>
@@ -19161,16 +19161,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>2.925344610214233</v>
+        <v>0.4841852188110352</v>
       </c>
       <c r="C188">
-        <v>0.9524885952969577</v>
+        <v>0.07443588093751119</v>
       </c>
       <c r="D188">
-        <v>0.4118326663970947</v>
+        <v>0.0329103946685791</v>
       </c>
       <c r="E188">
-        <v>0.3789123140132161</v>
+        <v>0.01197844315543789</v>
       </c>
       <c r="F188" t="b">
         <v>1</v>
@@ -19256,16 +19256,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>3.40674033164978</v>
+        <v>0.5023700714111328</v>
       </c>
       <c r="C189">
-        <v>0.6188507937644651</v>
+        <v>0.03096804923188096</v>
       </c>
       <c r="D189">
-        <v>0.1086314678192139</v>
+        <v>0.02949700355529785</v>
       </c>
       <c r="E189">
-        <v>0.02284670069448912</v>
+        <v>0.01069184656623514</v>
       </c>
       <c r="F189" t="b">
         <v>1</v>
@@ -19351,16 +19351,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.776194095611572</v>
+        <v>2.039105558395386</v>
       </c>
       <c r="C190">
-        <v>0.3426459052931408</v>
+        <v>1.031791947532557</v>
       </c>
       <c r="D190">
-        <v>0.06634058952331542</v>
+        <v>1.125683069229126</v>
       </c>
       <c r="E190">
-        <v>0.009721484920486669</v>
+        <v>0.2053912372748065</v>
       </c>
       <c r="F190" t="b">
         <v>1</v>
@@ -19446,16 +19446,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.590561723709107</v>
+        <v>2.722712755203247</v>
       </c>
       <c r="C191">
-        <v>0.1813237327118785</v>
+        <v>0.5539460264590146</v>
       </c>
       <c r="D191">
-        <v>0.0756418228149414</v>
+        <v>0.6220776081085205</v>
       </c>
       <c r="E191">
-        <v>0.007642557769816289</v>
+        <v>0.570649826883158</v>
       </c>
       <c r="F191" t="b">
         <v>1</v>
@@ -19541,16 +19541,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1817582607269287</v>
+        <v>0.2878582954406738</v>
       </c>
       <c r="C192">
-        <v>0.02873605109395091</v>
+        <v>0.1245642813288812</v>
       </c>
       <c r="D192">
-        <v>0.0253537654876709</v>
+        <v>0.3275150775909424</v>
       </c>
       <c r="E192">
-        <v>0.007281148314307578</v>
+        <v>0.1548914355723179</v>
       </c>
       <c r="F192" t="b">
         <v>1</v>
@@ -19636,16 +19636,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3602726459503174</v>
+        <v>1.194485235214233</v>
       </c>
       <c r="C193">
-        <v>0.0365819368406994</v>
+        <v>0.2424674336023976</v>
       </c>
       <c r="D193">
-        <v>0.03765549659729004</v>
+        <v>0.07896795272827148</v>
       </c>
       <c r="E193">
-        <v>0.01575580993041422</v>
+        <v>0.03678223608878511</v>
       </c>
       <c r="F193" t="b">
         <v>1</v>
@@ -19731,16 +19731,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.5638559818267822</v>
+        <v>0.4641454219818115</v>
       </c>
       <c r="C194">
-        <v>0.09643623139037179</v>
+        <v>0.06169940811002873</v>
       </c>
       <c r="D194">
-        <v>0.03486800193786621</v>
+        <v>0.0438878059387207</v>
       </c>
       <c r="E194">
-        <v>0.00459171271074387</v>
+        <v>0.02329906460020835</v>
       </c>
       <c r="F194" t="b">
         <v>1</v>
@@ -19826,16 +19826,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.635933780670166</v>
+        <v>0.3971937656402588</v>
       </c>
       <c r="C195">
-        <v>0.09476961659761732</v>
+        <v>0.02757699063257446</v>
       </c>
       <c r="D195">
-        <v>0.04166898727416992</v>
+        <v>0.05979065895080567</v>
       </c>
       <c r="E195">
-        <v>0.002653818012617449</v>
+        <v>0.02509087363765799</v>
       </c>
       <c r="F195" t="b">
         <v>1</v>
@@ -19921,16 +19921,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.776597547531128</v>
+        <v>0.5065960884094238</v>
       </c>
       <c r="C196">
-        <v>0.1400671648588631</v>
+        <v>0.2461732811437538</v>
       </c>
       <c r="D196">
-        <v>0.04310359954833985</v>
+        <v>0.03842315673828125</v>
       </c>
       <c r="E196">
-        <v>0.002346357645684857</v>
+        <v>0.01236885845404665</v>
       </c>
       <c r="F196" t="b">
         <v>1</v>
@@ -20016,16 +20016,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.9264417648315429</v>
+        <v>1.066629648208618</v>
       </c>
       <c r="C197">
-        <v>0.06925453135139879</v>
+        <v>0.07160384460896471</v>
       </c>
       <c r="D197">
-        <v>0.04736056327819824</v>
+        <v>0.05199017524719238</v>
       </c>
       <c r="E197">
-        <v>0.004779301553976787</v>
+        <v>0.01791477645531793</v>
       </c>
       <c r="F197" t="b">
         <v>1</v>
@@ -20111,16 +20111,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9614709854125977</v>
+        <v>0.8955314636230469</v>
       </c>
       <c r="C198">
-        <v>0.07916850528072748</v>
+        <v>0.1470360428927766</v>
       </c>
       <c r="D198">
-        <v>0.05305299758911133</v>
+        <v>0.04177818298339844</v>
       </c>
       <c r="E198">
-        <v>0.002784047964506016</v>
+        <v>0.008954258300608021</v>
       </c>
       <c r="F198" t="b">
         <v>1</v>
@@ -20206,16 +20206,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.083432722091675</v>
+        <v>0.8361519813537598</v>
       </c>
       <c r="C199">
-        <v>0.04984471739927603</v>
+        <v>0.0527876502241548</v>
       </c>
       <c r="D199">
-        <v>0.05603170394897461</v>
+        <v>0.03377590179443359</v>
       </c>
       <c r="E199">
-        <v>0.003403120753804739</v>
+        <v>0.01299590472658018</v>
       </c>
       <c r="F199" t="b">
         <v>1</v>
@@ -20301,16 +20301,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.290087556838989</v>
+        <v>0.6599283218383789</v>
       </c>
       <c r="C200">
-        <v>0.03146091952607256</v>
+        <v>0.1082877966950869</v>
       </c>
       <c r="D200">
-        <v>0.06355609893798828</v>
+        <v>0.0331087589263916</v>
       </c>
       <c r="E200">
-        <v>0.005267074666706896</v>
+        <v>0.01054426441666172</v>
       </c>
       <c r="F200" t="b">
         <v>1</v>
@@ -20396,16 +20396,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.604282426834106</v>
+        <v>1.046031999588013</v>
       </c>
       <c r="C201">
-        <v>0.08319007737945028</v>
+        <v>0.1953762479768708</v>
       </c>
       <c r="D201">
-        <v>0.07471842765808105</v>
+        <v>0.04547348022460938</v>
       </c>
       <c r="E201">
-        <v>0.01019372938390583</v>
+        <v>0.02162576459094179</v>
       </c>
       <c r="F201" t="b">
         <v>1</v>
@@ -20491,16 +20491,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1305590152740478</v>
+        <v>0.1003367900848389</v>
       </c>
       <c r="C202">
-        <v>0.02346241638451185</v>
+        <v>0.04723234781877981</v>
       </c>
       <c r="D202">
-        <v>0.03687238693237305</v>
+        <v>0.01210980415344238</v>
       </c>
       <c r="E202">
-        <v>0.02028274189289129</v>
+        <v>0.007006950579775055</v>
       </c>
       <c r="F202" t="b">
         <v>1</v>
@@ -20583,16 +20583,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.2364840507507324</v>
+        <v>0.1754311084747315</v>
       </c>
       <c r="C203">
-        <v>0.03977835059750058</v>
+        <v>0.08945280517352097</v>
       </c>
       <c r="D203">
-        <v>0.05665593147277832</v>
+        <v>0.02857589721679688</v>
       </c>
       <c r="E203">
-        <v>0.03617655951200609</v>
+        <v>0.01455122236253233</v>
       </c>
       <c r="F203" t="b">
         <v>1</v>
@@ -20675,16 +20675,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.350637674331665</v>
+        <v>0.3066625118255615</v>
       </c>
       <c r="C204">
-        <v>0.03943460299450622</v>
+        <v>0.08171407245535668</v>
       </c>
       <c r="D204">
-        <v>0.03893809318542481</v>
+        <v>0.04484686851501465</v>
       </c>
       <c r="E204">
-        <v>0.009360860763157158</v>
+        <v>0.02078871585323592</v>
       </c>
       <c r="F204" t="b">
         <v>1</v>
@@ -20767,16 +20767,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.4412833213806152</v>
+        <v>0.2477046489715576</v>
       </c>
       <c r="C205">
-        <v>0.05158034589167272</v>
+        <v>0.0361131341925892</v>
       </c>
       <c r="D205">
-        <v>0.03782472610473633</v>
+        <v>0.05329718589782715</v>
       </c>
       <c r="E205">
-        <v>0.00281624928634236</v>
+        <v>0.01947839029812472</v>
       </c>
       <c r="F205" t="b">
         <v>1</v>
@@ -20859,16 +20859,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.4573179244995117</v>
+        <v>0.3079269886016845</v>
       </c>
       <c r="C206">
-        <v>0.05263545320762415</v>
+        <v>0.07874428640741704</v>
       </c>
       <c r="D206">
-        <v>0.04954771995544434</v>
+        <v>0.04475197792053223</v>
       </c>
       <c r="E206">
-        <v>0.003438505392246288</v>
+        <v>0.01277310500705544</v>
       </c>
       <c r="F206" t="b">
         <v>1</v>
@@ -20951,16 +20951,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.5915482521057129</v>
+        <v>0.3595207691192627</v>
       </c>
       <c r="C207">
-        <v>0.0514296961415327</v>
+        <v>0.01451486974326039</v>
       </c>
       <c r="D207">
-        <v>0.07487378120422364</v>
+        <v>0.0218930721282959</v>
       </c>
       <c r="E207">
-        <v>0.02916403501177086</v>
+        <v>0.008521622894244242</v>
       </c>
       <c r="F207" t="b">
         <v>1</v>
@@ -21043,16 +21043,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.643421220779419</v>
+        <v>0.3940622806549072</v>
       </c>
       <c r="C208">
-        <v>0.08260921819348115</v>
+        <v>0.03287726702566659</v>
       </c>
       <c r="D208">
-        <v>0.05906863212585449</v>
+        <v>0.03120198249816895</v>
       </c>
       <c r="E208">
-        <v>0.006123310087140633</v>
+        <v>0.009063316186022397</v>
       </c>
       <c r="F208" t="b">
         <v>1</v>
@@ -21135,16 +21135,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.8661209583282471</v>
+        <v>0.3875819206237793</v>
       </c>
       <c r="C209">
-        <v>0.1581424214270635</v>
+        <v>0.04615548467864073</v>
       </c>
       <c r="D209">
-        <v>0.05519466400146485</v>
+        <v>0.05518341064453125</v>
       </c>
       <c r="E209">
-        <v>0.006753759876429731</v>
+        <v>0.02324200155776935</v>
       </c>
       <c r="F209" t="b">
         <v>1</v>
@@ -21227,16 +21227,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.8056073665618897</v>
+        <v>0.4022218227386475</v>
       </c>
       <c r="C210">
-        <v>0.07674704368915609</v>
+        <v>0.05788864908929285</v>
       </c>
       <c r="D210">
-        <v>0.05631904602050782</v>
+        <v>0.06373858451843262</v>
       </c>
       <c r="E210">
-        <v>0.001045215754117272</v>
+        <v>0.0222778611441195</v>
       </c>
       <c r="F210" t="b">
         <v>1</v>
@@ -21319,16 +21319,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.271343517303467</v>
+        <v>0.5347170829772949</v>
       </c>
       <c r="C211">
-        <v>0.06852226487524164</v>
+        <v>0.02023369568893649</v>
       </c>
       <c r="D211">
-        <v>0.06933050155639649</v>
+        <v>0.06086220741271973</v>
       </c>
       <c r="E211">
-        <v>0.007364372453992166</v>
+        <v>0.03441062862622404</v>
       </c>
       <c r="F211" t="b">
         <v>1</v>
@@ -21411,16 +21411,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1065301895141602</v>
+        <v>0.07885055541992188</v>
       </c>
       <c r="C212">
-        <v>0.01033486023074601</v>
+        <v>0.021228730200458</v>
       </c>
       <c r="D212">
-        <v>0.02109541893005371</v>
+        <v>0.01827864646911621</v>
       </c>
       <c r="E212">
-        <v>0.006279911206629677</v>
+        <v>0.0106401241950562</v>
       </c>
       <c r="F212" t="b">
         <v>1</v>
@@ -21503,16 +21503,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3983489513397217</v>
+        <v>0.1314141273498535</v>
       </c>
       <c r="C213">
-        <v>0.1200795626241742</v>
+        <v>0.0368999650265098</v>
       </c>
       <c r="D213">
-        <v>0.03011136054992676</v>
+        <v>0.04131083488464356</v>
       </c>
       <c r="E213">
-        <v>0.006863373439742008</v>
+        <v>0.0250386735536686</v>
       </c>
       <c r="F213" t="b">
         <v>1</v>
@@ -21595,16 +21595,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3446506977081299</v>
+        <v>0.1773667335510254</v>
       </c>
       <c r="C214">
-        <v>0.04270116060359308</v>
+        <v>0.02513642852831752</v>
       </c>
       <c r="D214">
-        <v>0.05888910293579101</v>
+        <v>0.02776846885681152</v>
       </c>
       <c r="E214">
-        <v>0.03933679516928028</v>
+        <v>0.008643750809709907</v>
       </c>
       <c r="F214" t="b">
         <v>1</v>
@@ -21687,16 +21687,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3745386600494385</v>
+        <v>0.2020094394683838</v>
       </c>
       <c r="C215">
-        <v>0.05433484479413354</v>
+        <v>0.03015431081344972</v>
       </c>
       <c r="D215">
-        <v>0.04930696487426758</v>
+        <v>0.06796355247497558</v>
       </c>
       <c r="E215">
-        <v>0.01033695010745391</v>
+        <v>0.06986598807180719</v>
       </c>
       <c r="F215" t="b">
         <v>1</v>
@@ -21779,16 +21779,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4785972595214844</v>
+        <v>0.2375602722167969</v>
       </c>
       <c r="C216">
-        <v>0.08667519327561168</v>
+        <v>0.05926958541795111</v>
       </c>
       <c r="D216">
-        <v>0.06199073791503906</v>
+        <v>0.05497736930847168</v>
       </c>
       <c r="E216">
-        <v>0.0253189510152307</v>
+        <v>0.02491197453808132</v>
       </c>
       <c r="F216" t="b">
         <v>1</v>
@@ -21871,16 +21871,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.7543200492858887</v>
+        <v>0.4661888599395752</v>
       </c>
       <c r="C217">
-        <v>0.1394106216631846</v>
+        <v>0.05216157558614837</v>
       </c>
       <c r="D217">
-        <v>0.06074118614196777</v>
+        <v>0.02276268005371094</v>
       </c>
       <c r="E217">
-        <v>0.007677370671513866</v>
+        <v>0.007565148697850074</v>
       </c>
       <c r="F217" t="b">
         <v>1</v>
@@ -21963,16 +21963,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.7919101715087891</v>
+        <v>0.4583524227142334</v>
       </c>
       <c r="C218">
-        <v>0.0278105086133104</v>
+        <v>0.03331778242311873</v>
       </c>
       <c r="D218">
-        <v>0.05568504333496094</v>
+        <v>0.05109720230102539</v>
       </c>
       <c r="E218">
-        <v>0.002557017588579151</v>
+        <v>0.01232064768395486</v>
       </c>
       <c r="F218" t="b">
         <v>1</v>
@@ -22055,16 +22055,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.7956736087799072</v>
+        <v>0.3477265357971192</v>
       </c>
       <c r="C219">
-        <v>0.1062996495814486</v>
+        <v>0.04151400484122891</v>
       </c>
       <c r="D219">
-        <v>0.05386958122253418</v>
+        <v>0.05269322395324707</v>
       </c>
       <c r="E219">
-        <v>0.00510300641396823</v>
+        <v>0.02724916517895696</v>
       </c>
       <c r="F219" t="b">
         <v>1</v>
@@ -22147,16 +22147,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9022359848022461</v>
+        <v>0.4213267803192139</v>
       </c>
       <c r="C220">
-        <v>0.09112668941297089</v>
+        <v>0.03738400380665003</v>
       </c>
       <c r="D220">
-        <v>0.061993408203125</v>
+        <v>0.05864830017089843</v>
       </c>
       <c r="E220">
-        <v>0.004762046735332714</v>
+        <v>0.0172333055856562</v>
       </c>
       <c r="F220" t="b">
         <v>1</v>
@@ -22239,16 +22239,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.127975082397461</v>
+        <v>1.188966751098633</v>
       </c>
       <c r="C221">
-        <v>0.1759213196425863</v>
+        <v>0.5730700592437969</v>
       </c>
       <c r="D221">
-        <v>0.07670536041259765</v>
+        <v>0.1292078495025635</v>
       </c>
       <c r="E221">
-        <v>0.005445554566169854</v>
+        <v>0.1135241941487837</v>
       </c>
       <c r="F221" t="b">
         <v>1</v>
@@ -22331,16 +22331,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1476847648620606</v>
+        <v>0.1131095409393311</v>
       </c>
       <c r="C222">
-        <v>0.04247983321323669</v>
+        <v>0.02780399468850321</v>
       </c>
       <c r="D222">
-        <v>0.02445178031921387</v>
+        <v>0.01995935440063477</v>
       </c>
       <c r="E222">
-        <v>0.006516508846877459</v>
+        <v>0.008187111639236818</v>
       </c>
       <c r="F222" t="b">
         <v>1</v>
@@ -22423,16 +22423,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3079104423522949</v>
+        <v>0.2327020645141601</v>
       </c>
       <c r="C223">
-        <v>0.06781863381583551</v>
+        <v>0.2738229572581616</v>
       </c>
       <c r="D223">
-        <v>0.0504251480102539</v>
+        <v>0.1517910480499268</v>
       </c>
       <c r="E223">
-        <v>0.01969723436815043</v>
+        <v>0.1590133603769744</v>
       </c>
       <c r="F223" t="b">
         <v>1</v>
@@ -22515,16 +22515,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3951706409454346</v>
+        <v>1.083852481842041</v>
       </c>
       <c r="C224">
-        <v>0.05291744112618945</v>
+        <v>0.4132019528649475</v>
       </c>
       <c r="D224">
-        <v>0.05007791519165039</v>
+        <v>0.02400870323181152</v>
       </c>
       <c r="E224">
-        <v>0.02216917403296136</v>
+        <v>0.007204428778777407</v>
       </c>
       <c r="F224" t="b">
         <v>1</v>
@@ -22607,16 +22607,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.4441933631896973</v>
+        <v>0.1808379650115967</v>
       </c>
       <c r="C225">
-        <v>0.05379796193274654</v>
+        <v>0.01222689980630974</v>
       </c>
       <c r="D225">
-        <v>0.04616837501525879</v>
+        <v>0.01370606422424316</v>
       </c>
       <c r="E225">
-        <v>0.01485429244568749</v>
+        <v>0.0004772150592609535</v>
       </c>
       <c r="F225" t="b">
         <v>1</v>
@@ -22699,16 +22699,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.625507402420044</v>
+        <v>0.2818136692047119</v>
       </c>
       <c r="C226">
-        <v>0.08307787721873185</v>
+        <v>0.05997743327778198</v>
       </c>
       <c r="D226">
-        <v>0.0532724380493164</v>
+        <v>0.04788541793823242</v>
       </c>
       <c r="E226">
-        <v>0.009597118710894437</v>
+        <v>0.04027842217709704</v>
       </c>
       <c r="F226" t="b">
         <v>1</v>
@@ -22791,16 +22791,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.8466648578643798</v>
+        <v>0.4151803970336914</v>
       </c>
       <c r="C227">
-        <v>0.09222425083933157</v>
+        <v>0.06617250907560411</v>
       </c>
       <c r="D227">
-        <v>0.06293001174926757</v>
+        <v>0.04194111824035644</v>
       </c>
       <c r="E227">
-        <v>0.01486763308919721</v>
+        <v>0.03819466951943885</v>
       </c>
       <c r="F227" t="b">
         <v>1</v>
@@ -22883,16 +22883,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.9139038562774658</v>
+        <v>0.4865395545959473</v>
       </c>
       <c r="C228">
-        <v>0.03331180195685643</v>
+        <v>0.111976455413382</v>
       </c>
       <c r="D228">
-        <v>0.05481476783752441</v>
+        <v>0.04796266555786133</v>
       </c>
       <c r="E228">
-        <v>0.002986194754883448</v>
+        <v>0.02318168511318791</v>
       </c>
       <c r="F228" t="b">
         <v>1</v>
@@ -22975,16 +22975,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.399789619445801</v>
+        <v>0.5215421199798584</v>
       </c>
       <c r="C229">
-        <v>0.2821766749580799</v>
+        <v>0.04136176774702666</v>
       </c>
       <c r="D229">
-        <v>0.7332619667053223</v>
+        <v>0.03261432647705078</v>
       </c>
       <c r="E229">
-        <v>0.544207180124242</v>
+        <v>0.01155164424704586</v>
       </c>
       <c r="F229" t="b">
         <v>1</v>
@@ -23067,16 +23067,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>4.039351129531861</v>
+        <v>0.5598397254943848</v>
       </c>
       <c r="C230">
-        <v>0.7894452903890842</v>
+        <v>0.04830804512474794</v>
       </c>
       <c r="D230">
-        <v>0.445448637008667</v>
+        <v>0.03444614410400391</v>
       </c>
       <c r="E230">
-        <v>0.2842805287318135</v>
+        <v>0.01068285250607578</v>
       </c>
       <c r="F230" t="b">
         <v>1</v>
@@ -23159,16 +23159,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>2.677041530609131</v>
+        <v>0.6597143173217773</v>
       </c>
       <c r="C231">
-        <v>0.4705519941931123</v>
+        <v>0.04051806099388081</v>
       </c>
       <c r="D231">
-        <v>0.09438328742980957</v>
+        <v>0.1396180629730225</v>
       </c>
       <c r="E231">
-        <v>0.01920718569557585</v>
+        <v>0.08113028051172834</v>
       </c>
       <c r="F231" t="b">
         <v>1</v>
@@ -23251,16 +23251,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.1913017272949219</v>
+        <v>0.05805211067199707</v>
       </c>
       <c r="C232">
-        <v>0.04605840180352083</v>
+        <v>0.02593683012253454</v>
       </c>
       <c r="D232">
-        <v>0.02740564346313477</v>
+        <v>0.02332921028137207</v>
       </c>
       <c r="E232">
-        <v>0.008349090433832106</v>
+        <v>0.03234848561273116</v>
       </c>
       <c r="F232" t="b">
         <v>1</v>
@@ -23343,16 +23343,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3201210498809814</v>
+        <v>0.1136455535888672</v>
       </c>
       <c r="C233">
-        <v>0.04326087093368281</v>
+        <v>0.02134577432765221</v>
       </c>
       <c r="D233">
-        <v>0.03582191467285156</v>
+        <v>0.04129090309143067</v>
       </c>
       <c r="E233">
-        <v>0.00937129680735224</v>
+        <v>0.02474049870025576</v>
       </c>
       <c r="F233" t="b">
         <v>1</v>
@@ -23435,16 +23435,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.4868737697601319</v>
+        <v>0.5792827129364013</v>
       </c>
       <c r="C234">
-        <v>0.07822602041131493</v>
+        <v>0.6320574649855821</v>
       </c>
       <c r="D234">
-        <v>0.04208264350891113</v>
+        <v>0.2161530017852783</v>
       </c>
       <c r="E234">
-        <v>0.01058225912539946</v>
+        <v>0.01577569029132296</v>
       </c>
       <c r="F234" t="b">
         <v>1</v>
@@ -23527,16 +23527,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.4628407955169678</v>
+        <v>1.74430046081543</v>
       </c>
       <c r="C235">
-        <v>0.09729540740979029</v>
+        <v>0.1109910469654085</v>
       </c>
       <c r="D235">
-        <v>0.04391617774963379</v>
+        <v>0.1537917613983154</v>
       </c>
       <c r="E235">
-        <v>0.0111204852015392</v>
+        <v>0.05984122314484771</v>
       </c>
       <c r="F235" t="b">
         <v>1</v>
@@ -23619,16 +23619,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.5360991954803467</v>
+        <v>2.012238311767578</v>
       </c>
       <c r="C236">
-        <v>0.04127466115107497</v>
+        <v>0.2444985957489418</v>
       </c>
       <c r="D236">
-        <v>0.05054197311401367</v>
+        <v>0.2649151802062988</v>
       </c>
       <c r="E236">
-        <v>0.00510075216589397</v>
+        <v>0.2110196030364079</v>
       </c>
       <c r="F236" t="b">
         <v>1</v>
@@ -23711,16 +23711,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.6174552917480469</v>
+        <v>2.58960542678833</v>
       </c>
       <c r="C237">
-        <v>0.04528023628805562</v>
+        <v>0.05658602717293047</v>
       </c>
       <c r="D237">
-        <v>0.05214729309082031</v>
+        <v>0.09486837387084961</v>
       </c>
       <c r="E237">
-        <v>0.007005100413872942</v>
+        <v>0.03015630789365493</v>
       </c>
       <c r="F237" t="b">
         <v>1</v>
@@ -23803,16 +23803,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.645023250579834</v>
+        <v>0.6370925426483154</v>
       </c>
       <c r="C238">
-        <v>0.02881598586656911</v>
+        <v>0.05656442568188601</v>
       </c>
       <c r="D238">
-        <v>0.0554448127746582</v>
+        <v>0.05547614097595215</v>
       </c>
       <c r="E238">
-        <v>0.00861577183951605</v>
+        <v>0.02322824835609379</v>
       </c>
       <c r="F238" t="b">
         <v>1</v>
@@ -23895,16 +23895,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.8443416595458985</v>
+        <v>0.828467845916748</v>
       </c>
       <c r="C239">
-        <v>0.08311749716039131</v>
+        <v>0.1225417104291386</v>
       </c>
       <c r="D239">
-        <v>0.06787185668945313</v>
+        <v>0.03962283134460449</v>
       </c>
       <c r="E239">
-        <v>0.008871183753337446</v>
+        <v>0.01863361525930297</v>
       </c>
       <c r="F239" t="b">
         <v>1</v>
@@ -23987,16 +23987,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.052489948272705</v>
+        <v>0.9326096057891846</v>
       </c>
       <c r="C240">
-        <v>0.09513087898176416</v>
+        <v>0.05835564231637783</v>
       </c>
       <c r="D240">
-        <v>0.07604656219482422</v>
+        <v>0.08882741928100586</v>
       </c>
       <c r="E240">
-        <v>0.009571257233793682</v>
+        <v>0.04185425065356116</v>
       </c>
       <c r="F240" t="b">
         <v>1</v>
@@ -24079,16 +24079,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.259629011154175</v>
+        <v>1.209509706497192</v>
       </c>
       <c r="C241">
-        <v>0.2068529169736263</v>
+        <v>0.1888017216980722</v>
       </c>
       <c r="D241">
-        <v>0.06665096282958985</v>
+        <v>0.05747461318969727</v>
       </c>
       <c r="E241">
-        <v>0.003417746135367772</v>
+        <v>0.01749932120998485</v>
       </c>
       <c r="F241" t="b">
         <v>1</v>
@@ -24171,16 +24171,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.1632595539093017</v>
+        <v>0.09840874671936035</v>
       </c>
       <c r="C242">
-        <v>0.04509712484155492</v>
+        <v>0.02129208279438357</v>
       </c>
       <c r="D242">
-        <v>0.02297182083129883</v>
+        <v>0.01952600479125977</v>
       </c>
       <c r="E242">
-        <v>0.0067626286230867</v>
+        <v>0.005330239939323738</v>
       </c>
       <c r="F242" t="b">
         <v>1</v>
@@ -24263,16 +24263,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.2560038566589355</v>
+        <v>0.2153714179992676</v>
       </c>
       <c r="C243">
-        <v>0.04209203699927773</v>
+        <v>0.1094255172569112</v>
       </c>
       <c r="D243">
-        <v>0.03986291885375977</v>
+        <v>0.03053121566772461</v>
       </c>
       <c r="E243">
-        <v>0.0147880834263599</v>
+        <v>0.01135935193852472</v>
       </c>
       <c r="F243" t="b">
         <v>1</v>
@@ -24355,16 +24355,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3156611919403076</v>
+        <v>0.2887788295745849</v>
       </c>
       <c r="C244">
-        <v>0.02127649000170237</v>
+        <v>0.09026156402377818</v>
       </c>
       <c r="D244">
-        <v>0.06011881828308106</v>
+        <v>0.04410252571105957</v>
       </c>
       <c r="E244">
-        <v>0.01242492359943497</v>
+        <v>0.0144003394184552</v>
       </c>
       <c r="F244" t="b">
         <v>1</v>
@@ -24447,16 +24447,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3954067707061767</v>
+        <v>0.2226878166198731</v>
       </c>
       <c r="C245">
-        <v>0.03986197514175123</v>
+        <v>0.03782461635734703</v>
       </c>
       <c r="D245">
-        <v>0.05107946395874023</v>
+        <v>0.03187637329101563</v>
       </c>
       <c r="E245">
-        <v>0.02459349297329904</v>
+        <v>0.008202354473162043</v>
       </c>
       <c r="F245" t="b">
         <v>1</v>
@@ -24539,16 +24539,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.4971359729766845</v>
+        <v>0.2977010250091553</v>
       </c>
       <c r="C246">
-        <v>0.1054580423196275</v>
+        <v>0.03258342672544774</v>
       </c>
       <c r="D246">
-        <v>0.08360700607299805</v>
+        <v>0.04036078453063965</v>
       </c>
       <c r="E246">
-        <v>0.0522756755906335</v>
+        <v>0.008491008640077012</v>
       </c>
       <c r="F246" t="b">
         <v>1</v>
@@ -24631,16 +24631,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.5918388366699219</v>
+        <v>0.4311990261077881</v>
       </c>
       <c r="C247">
-        <v>0.0174910084072968</v>
+        <v>0.04591585448320593</v>
       </c>
       <c r="D247">
-        <v>0.04730019569396973</v>
+        <v>0.03754057884216309</v>
       </c>
       <c r="E247">
-        <v>0.008500294323877562</v>
+        <v>0.003873126865900101</v>
       </c>
       <c r="F247" t="b">
         <v>1</v>
@@ -24723,16 +24723,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.7768249988555909</v>
+        <v>0.4393698692321777</v>
       </c>
       <c r="C248">
-        <v>0.03341123278506993</v>
+        <v>0.05149004353209632</v>
       </c>
       <c r="D248">
-        <v>0.06174154281616211</v>
+        <v>0.05458893775939942</v>
       </c>
       <c r="E248">
-        <v>0.00659087777732409</v>
+        <v>0.02268378735258953</v>
       </c>
       <c r="F248" t="b">
         <v>1</v>
@@ -24815,16 +24815,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.011445140838623</v>
+        <v>0.5752448081970215</v>
       </c>
       <c r="C249">
-        <v>0.1316766752903029</v>
+        <v>0.1486881130245877</v>
       </c>
       <c r="D249">
-        <v>0.05944747924804687</v>
+        <v>0.02553234100341797</v>
       </c>
       <c r="E249">
-        <v>0.003705218463481355</v>
+        <v>0.006189942493952978</v>
       </c>
       <c r="F249" t="b">
         <v>1</v>
@@ -24907,16 +24907,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.941725206375122</v>
+        <v>0.5066618919372559</v>
       </c>
       <c r="C250">
-        <v>0.07280090605039677</v>
+        <v>0.07065311773058577</v>
       </c>
       <c r="D250">
-        <v>0.06231422424316406</v>
+        <v>0.02901091575622559</v>
       </c>
       <c r="E250">
-        <v>0.005840700748755551</v>
+        <v>0.006911169818220886</v>
       </c>
       <c r="F250" t="b">
         <v>1</v>
@@ -24999,16 +24999,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.149039506912231</v>
+        <v>0.6007637023925781</v>
       </c>
       <c r="C251">
-        <v>0.2143878703372383</v>
+        <v>0.01334646852988195</v>
       </c>
       <c r="D251">
-        <v>0.09074878692626953</v>
+        <v>0.02973856925964356</v>
       </c>
       <c r="E251">
-        <v>0.01297516991735172</v>
+        <v>0.001822704686293597</v>
       </c>
       <c r="F251" t="b">
         <v>1</v>
@@ -25091,16 +25091,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.1558437824249267</v>
+        <v>0.05202198028564453</v>
       </c>
       <c r="C252">
-        <v>0.0274127793038969</v>
+        <v>0.01752524029760916</v>
       </c>
       <c r="D252">
-        <v>0.0590634822845459</v>
+        <v>0.007426786422729492</v>
       </c>
       <c r="E252">
-        <v>0.02379654614383546</v>
+        <v>0.001836054622611096</v>
       </c>
       <c r="F252" t="b">
         <v>1</v>
@@ -25183,16 +25183,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3568252086639404</v>
+        <v>0.108850622177124</v>
       </c>
       <c r="C253">
-        <v>0.05161990088189092</v>
+        <v>0.0335411583209156</v>
       </c>
       <c r="D253">
-        <v>0.08261604309082031</v>
+        <v>0.03512773513793945</v>
       </c>
       <c r="E253">
-        <v>0.07054206959392299</v>
+        <v>0.03008749211357847</v>
       </c>
       <c r="F253" t="b">
         <v>1</v>
@@ -25275,16 +25275,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3959335803985596</v>
+        <v>0.194740104675293</v>
       </c>
       <c r="C254">
-        <v>0.02500451970280649</v>
+        <v>0.04676457568890231</v>
       </c>
       <c r="D254">
-        <v>0.04081244468688965</v>
+        <v>0.02817630767822266</v>
       </c>
       <c r="E254">
-        <v>0.01486727273178752</v>
+        <v>0.01447115208155931</v>
       </c>
       <c r="F254" t="b">
         <v>1</v>
@@ -25367,16 +25367,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.5019196510314942</v>
+        <v>0.2297451972961426</v>
       </c>
       <c r="C255">
-        <v>0.08588680306445831</v>
+        <v>0.07292923669073345</v>
       </c>
       <c r="D255">
-        <v>0.04568567276000977</v>
+        <v>0.02446722984313965</v>
       </c>
       <c r="E255">
-        <v>0.002496164076555309</v>
+        <v>0.003643401789764261</v>
       </c>
       <c r="F255" t="b">
         <v>1</v>
@@ -25459,16 +25459,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.5774448871612549</v>
+        <v>0.2739418506622314</v>
       </c>
       <c r="C256">
-        <v>0.04234900620363523</v>
+        <v>0.05306115294939651</v>
       </c>
       <c r="D256">
-        <v>0.04809393882751465</v>
+        <v>0.02444658279418945</v>
       </c>
       <c r="E256">
-        <v>0.00344864468427199</v>
+        <v>0.006203521402786438</v>
       </c>
       <c r="F256" t="b">
         <v>1</v>
@@ -25551,16 +25551,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.6747427463531495</v>
+        <v>0.2904403686523437</v>
       </c>
       <c r="C257">
-        <v>0.03694781528241353</v>
+        <v>0.09748194936168532</v>
       </c>
       <c r="D257">
-        <v>0.06113166809082031</v>
+        <v>0.04756283760070801</v>
       </c>
       <c r="E257">
-        <v>0.01502773030229072</v>
+        <v>0.01858951379139914</v>
       </c>
       <c r="F257" t="b">
         <v>1</v>
@@ -25643,16 +25643,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.7531425952911377</v>
+        <v>0.3924348831176758</v>
       </c>
       <c r="C258">
-        <v>0.09354547150145495</v>
+        <v>0.06736429669475104</v>
       </c>
       <c r="D258">
-        <v>0.06537542343139649</v>
+        <v>0.03736295700073242</v>
       </c>
       <c r="E258">
-        <v>0.01217793801316223</v>
+        <v>0.01400135808405806</v>
       </c>
       <c r="F258" t="b">
         <v>1</v>
@@ -25735,16 +25735,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.7432533740997315</v>
+        <v>0.3870555400848389</v>
       </c>
       <c r="C259">
-        <v>0.05363168326439618</v>
+        <v>0.05781401514502729</v>
       </c>
       <c r="D259">
-        <v>0.05847740173339844</v>
+        <v>0.03847012519836426</v>
       </c>
       <c r="E259">
-        <v>0.006378816803993373</v>
+        <v>0.009909441688894981</v>
       </c>
       <c r="F259" t="b">
         <v>1</v>
@@ -25827,16 +25827,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.7865047454833984</v>
+        <v>0.4651628971099854</v>
       </c>
       <c r="C260">
-        <v>0.02966216373291691</v>
+        <v>0.06704185431934781</v>
       </c>
       <c r="D260">
-        <v>0.07227044105529785</v>
+        <v>0.03803715705871582</v>
       </c>
       <c r="E260">
-        <v>0.006895526983968419</v>
+        <v>0.0110827976077282</v>
       </c>
       <c r="F260" t="b">
         <v>1</v>
@@ -25919,16 +25919,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.03030571937561</v>
+        <v>0.4218386173248291</v>
       </c>
       <c r="C261">
-        <v>0.1089422393535054</v>
+        <v>0.04744699109149683</v>
       </c>
       <c r="D261">
-        <v>0.07438640594482422</v>
+        <v>0.03562593460083008</v>
       </c>
       <c r="E261">
-        <v>0.003199246518078524</v>
+        <v>0.01609660117487566</v>
       </c>
       <c r="F261" t="b">
         <v>1</v>
@@ -26011,16 +26011,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.1171149730682373</v>
+        <v>0.1118805408477783</v>
       </c>
       <c r="C262">
-        <v>0.01035592757047176</v>
+        <v>0.08406019378221145</v>
       </c>
       <c r="D262">
-        <v>0.02218422889709473</v>
+        <v>0.01573843955993652</v>
       </c>
       <c r="E262">
-        <v>0.002203978384896005</v>
+        <v>0.0110588880727948</v>
       </c>
       <c r="F262" t="b">
         <v>1</v>
@@ -26103,16 +26103,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2639725685119629</v>
+        <v>0.1338053226470947</v>
       </c>
       <c r="C263">
-        <v>0.02469995623135977</v>
+        <v>0.02581157863544873</v>
       </c>
       <c r="D263">
-        <v>0.03679513931274414</v>
+        <v>0.02425980567932129</v>
       </c>
       <c r="E263">
-        <v>0.008844209123255431</v>
+        <v>0.01267601566648153</v>
       </c>
       <c r="F263" t="b">
         <v>1</v>
@@ -26195,16 +26195,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3172260761260987</v>
+        <v>0.151575231552124</v>
       </c>
       <c r="C264">
-        <v>0.04838257201299785</v>
+        <v>0.03934913372397688</v>
       </c>
       <c r="D264">
-        <v>0.04248056411743164</v>
+        <v>0.02120184898376465</v>
       </c>
       <c r="E264">
-        <v>0.01567908891148999</v>
+        <v>0.01539417151146674</v>
       </c>
       <c r="F264" t="b">
         <v>1</v>
@@ -26287,16 +26287,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3583953380584717</v>
+        <v>0.2119849681854248</v>
       </c>
       <c r="C265">
-        <v>0.04907608255888759</v>
+        <v>0.03553199930815335</v>
       </c>
       <c r="D265">
-        <v>0.04403624534606933</v>
+        <v>0.03884344100952149</v>
       </c>
       <c r="E265">
-        <v>0.005496144650466207</v>
+        <v>0.006278854198560981</v>
       </c>
       <c r="F265" t="b">
         <v>1</v>
@@ -26379,16 +26379,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.4874886989593506</v>
+        <v>0.3431228160858154</v>
       </c>
       <c r="C266">
-        <v>0.06009777177000762</v>
+        <v>0.1240744880685171</v>
       </c>
       <c r="D266">
-        <v>0.06028637886047363</v>
+        <v>0.02832579612731934</v>
       </c>
       <c r="E266">
-        <v>0.02375590103302346</v>
+        <v>0.00754263218800399</v>
       </c>
       <c r="F266" t="b">
         <v>1</v>
@@ -26471,16 +26471,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.7328448295593262</v>
+        <v>0.5230323791503906</v>
       </c>
       <c r="C267">
-        <v>0.1132321292322457</v>
+        <v>0.01934547420367289</v>
       </c>
       <c r="D267">
-        <v>0.1064505100250244</v>
+        <v>0.01888079643249512</v>
       </c>
       <c r="E267">
-        <v>0.05949975043337392</v>
+        <v>0.004424962193467242</v>
       </c>
       <c r="F267" t="b">
         <v>1</v>
@@ -26563,16 +26563,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.8924282550811767</v>
+        <v>0.4447669982910156</v>
       </c>
       <c r="C268">
-        <v>0.1092831779417432</v>
+        <v>0.1126493710469762</v>
       </c>
       <c r="D268">
-        <v>0.05834989547729492</v>
+        <v>0.03429403305053711</v>
       </c>
       <c r="E268">
-        <v>0.02382914446485664</v>
+        <v>0.01129539264367556</v>
       </c>
       <c r="F268" t="b">
         <v>1</v>
@@ -26655,16 +26655,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.9871609210968018</v>
+        <v>0.4427391529083252</v>
       </c>
       <c r="C269">
-        <v>0.1876659237129057</v>
+        <v>0.1340860548613845</v>
       </c>
       <c r="D269">
-        <v>0.07076864242553711</v>
+        <v>0.08515009880065919</v>
       </c>
       <c r="E269">
-        <v>0.01530458421316164</v>
+        <v>0.1108689636860247</v>
       </c>
       <c r="F269" t="b">
         <v>1</v>
@@ -26747,16 +26747,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.050999593734741</v>
+        <v>0.6452963352203369</v>
       </c>
       <c r="C270">
-        <v>0.1479293371442299</v>
+        <v>0.02580101126535682</v>
       </c>
       <c r="D270">
-        <v>0.05974221229553223</v>
+        <v>0.04597749710083008</v>
       </c>
       <c r="E270">
-        <v>0.003825067422788628</v>
+        <v>0.008588504719779464</v>
       </c>
       <c r="F270" t="b">
         <v>1</v>
@@ -26839,16 +26839,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.059113216400146</v>
+        <v>0.5587600231170654</v>
       </c>
       <c r="C271">
-        <v>0.1772489988690346</v>
+        <v>0.1043111809911199</v>
       </c>
       <c r="D271">
-        <v>0.07706098556518555</v>
+        <v>0.06233015060424805</v>
       </c>
       <c r="E271">
-        <v>0.01458323635714221</v>
+        <v>0.05754963857263853</v>
       </c>
       <c r="F271" t="b">
         <v>1</v>
@@ -26931,16 +26931,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.1624279975891113</v>
+        <v>0.07709040641784667</v>
       </c>
       <c r="C272">
-        <v>0.06338889103278222</v>
+        <v>0.02392007591421345</v>
       </c>
       <c r="D272">
-        <v>0.03024921417236328</v>
+        <v>0.0353907585144043</v>
       </c>
       <c r="E272">
-        <v>0.007221893823318528</v>
+        <v>0.01092082744827559</v>
       </c>
       <c r="F272" t="b">
         <v>1</v>
@@ -27023,16 +27023,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.303239631652832</v>
+        <v>0.1779163360595703</v>
       </c>
       <c r="C273">
-        <v>0.047199346057801</v>
+        <v>0.08912032858820908</v>
       </c>
       <c r="D273">
-        <v>0.04729442596435547</v>
+        <v>0.06061677932739258</v>
       </c>
       <c r="E273">
-        <v>0.02867502208466818</v>
+        <v>0.02906739517329594</v>
       </c>
       <c r="F273" t="b">
         <v>1</v>
@@ -27115,16 +27115,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3874568462371826</v>
+        <v>0.2564639568328858</v>
       </c>
       <c r="C274">
-        <v>0.05300565169632003</v>
+        <v>0.04005395518413758</v>
       </c>
       <c r="D274">
-        <v>0.03722481727600098</v>
+        <v>0.03823318481445313</v>
       </c>
       <c r="E274">
-        <v>0.004289028075335482</v>
+        <v>0.01972497136342121</v>
       </c>
       <c r="F274" t="b">
         <v>1</v>
@@ -27207,16 +27207,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.5462439060211182</v>
+        <v>0.2119927883148193</v>
       </c>
       <c r="C275">
-        <v>0.1072494228316457</v>
+        <v>0.01052341045149283</v>
       </c>
       <c r="D275">
-        <v>0.04709210395812988</v>
+        <v>0.03209700584411621</v>
       </c>
       <c r="E275">
-        <v>0.009316370339752855</v>
+        <v>0.01302226288462281</v>
       </c>
       <c r="F275" t="b">
         <v>1</v>
@@ -27299,16 +27299,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.5794154167175293</v>
+        <v>0.2258581638336182</v>
       </c>
       <c r="C276">
-        <v>0.1091206002595733</v>
+        <v>0.04458660716807641</v>
       </c>
       <c r="D276">
-        <v>0.06951842308044434</v>
+        <v>0.02466306686401367</v>
       </c>
       <c r="E276">
-        <v>0.03129389117278717</v>
+        <v>0.01006243753211195</v>
       </c>
       <c r="F276" t="b">
         <v>1</v>
@@ -27391,16 +27391,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.6269613742828369</v>
+        <v>0.2619604587554932</v>
       </c>
       <c r="C277">
-        <v>0.0623475727577262</v>
+        <v>0.005430534175503726</v>
       </c>
       <c r="D277">
-        <v>0.0586756706237793</v>
+        <v>0.0362548828125</v>
       </c>
       <c r="E277">
-        <v>0.01023705738978645</v>
+        <v>0.003927498928023499</v>
       </c>
       <c r="F277" t="b">
         <v>1</v>
@@ -27483,16 +27483,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.6924083232879639</v>
+        <v>0.3476108551025391</v>
       </c>
       <c r="C278">
-        <v>0.01438073047653281</v>
+        <v>0.06499583453356572</v>
       </c>
       <c r="D278">
-        <v>0.05689845085144043</v>
+        <v>0.03802523612976074</v>
       </c>
       <c r="E278">
-        <v>0.008807789999738668</v>
+        <v>0.02215870082279976</v>
       </c>
       <c r="F278" t="b">
         <v>1</v>
@@ -27575,16 +27575,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.8309560775756836</v>
+        <v>0.3985226154327393</v>
       </c>
       <c r="C279">
-        <v>0.07717533226591769</v>
+        <v>0.006562830928997752</v>
       </c>
       <c r="D279">
-        <v>0.05785717964172363</v>
+        <v>0.04613327980041504</v>
       </c>
       <c r="E279">
-        <v>0.004702738402663292</v>
+        <v>0.01667326725422363</v>
       </c>
       <c r="F279" t="b">
         <v>1</v>
@@ -27667,16 +27667,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1.016917943954468</v>
+        <v>0.9123464584350586</v>
       </c>
       <c r="C280">
-        <v>0.06736509128516059</v>
+        <v>0.2044799631998348</v>
       </c>
       <c r="D280">
-        <v>0.06640062332153321</v>
+        <v>0.6222142219543457</v>
       </c>
       <c r="E280">
-        <v>0.004590154729374173</v>
+        <v>0.2365063269836829</v>
       </c>
       <c r="F280" t="b">
         <v>1</v>
@@ -27759,16 +27759,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.006394815444946</v>
+        <v>2.181154108047485</v>
       </c>
       <c r="C281">
-        <v>0.06427240178378256</v>
+        <v>1.42678377365402</v>
       </c>
       <c r="D281">
-        <v>0.07304911613464356</v>
+        <v>0.7462216377258301</v>
       </c>
       <c r="E281">
-        <v>0.005092760207380413</v>
+        <v>0.4047989286929284</v>
       </c>
       <c r="F281" t="b">
         <v>1</v>
@@ -27851,16 +27851,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.1401507377624512</v>
+        <v>0.7989939689636231</v>
       </c>
       <c r="C282">
-        <v>0.04067680861307518</v>
+        <v>0.3251079031959118</v>
       </c>
       <c r="D282">
-        <v>0.02489871978759766</v>
+        <v>0.4065336227416992</v>
       </c>
       <c r="E282">
-        <v>0.007070950602267885</v>
+        <v>0.2994682262620841</v>
       </c>
       <c r="F282" t="b">
         <v>1</v>
@@ -27943,16 +27943,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2557441711425781</v>
+        <v>1.20809178352356</v>
       </c>
       <c r="C283">
-        <v>0.04591862688996742</v>
+        <v>0.2583168849617928</v>
       </c>
       <c r="D283">
-        <v>0.03896794319152832</v>
+        <v>0.3715869903564453</v>
       </c>
       <c r="E283">
-        <v>0.0149768587753966</v>
+        <v>0.08778712823134331</v>
       </c>
       <c r="F283" t="b">
         <v>1</v>
@@ -28035,16 +28035,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3041163921356201</v>
+        <v>1.132230758666992</v>
       </c>
       <c r="C284">
-        <v>0.03071729061391522</v>
+        <v>0.1608630602310009</v>
       </c>
       <c r="D284">
-        <v>0.05631299018859863</v>
+        <v>0.106204080581665</v>
       </c>
       <c r="E284">
-        <v>0.0372515781500873</v>
+        <v>0.07701216592003196</v>
       </c>
       <c r="F284" t="b">
         <v>1</v>
@@ -28127,16 +28127,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3481348514556885</v>
+        <v>0.4097294330596924</v>
       </c>
       <c r="C285">
-        <v>0.02144051391526164</v>
+        <v>0.1969317830901391</v>
       </c>
       <c r="D285">
-        <v>0.04310450553894043</v>
+        <v>0.0494286060333252</v>
       </c>
       <c r="E285">
-        <v>0.006063349009320295</v>
+        <v>0.009578730132811304</v>
       </c>
       <c r="F285" t="b">
         <v>1</v>
@@ -28219,16 +28219,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.5228041172027588</v>
+        <v>0.6698449611663818</v>
       </c>
       <c r="C286">
-        <v>0.07324009533988492</v>
+        <v>0.2315586179734397</v>
       </c>
       <c r="D286">
-        <v>0.05458598136901856</v>
+        <v>0.07795505523681641</v>
       </c>
       <c r="E286">
-        <v>0.009389228788476681</v>
+        <v>0.02743734367473659</v>
       </c>
       <c r="F286" t="b">
         <v>1</v>
@@ -28311,16 +28311,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.5886816501617431</v>
+        <v>1.051833009719849</v>
       </c>
       <c r="C287">
-        <v>0.0570313936001121</v>
+        <v>0.1480553639815272</v>
       </c>
       <c r="D287">
-        <v>0.05405454635620117</v>
+        <v>0.06734004020690917</v>
       </c>
       <c r="E287">
-        <v>0.004858883087166747</v>
+        <v>0.04217385187396377</v>
       </c>
       <c r="F287" t="b">
         <v>1</v>
@@ -28403,16 +28403,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.6880754470825196</v>
+        <v>0.744235897064209</v>
       </c>
       <c r="C288">
-        <v>0.007299836581646495</v>
+        <v>0.1410322275999155</v>
       </c>
       <c r="D288">
-        <v>0.06299061775207519</v>
+        <v>0.04286327362060547</v>
       </c>
       <c r="E288">
-        <v>0.004221241548424243</v>
+        <v>0.02437884244365985</v>
       </c>
       <c r="F288" t="b">
         <v>1</v>
@@ -28495,16 +28495,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.7295538902282714</v>
+        <v>0.7090076446533203</v>
       </c>
       <c r="C289">
-        <v>0.05698915727583358</v>
+        <v>0.07455988823311184</v>
       </c>
       <c r="D289">
-        <v>0.08270187377929687</v>
+        <v>0.05132198333740234</v>
       </c>
       <c r="E289">
-        <v>0.03210417414967646</v>
+        <v>0.02187903221229563</v>
       </c>
       <c r="F289" t="b">
         <v>1</v>
@@ -28587,16 +28587,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>2.207570219039917</v>
+        <v>0.5127346992492676</v>
       </c>
       <c r="C290">
-        <v>1.224077360212101</v>
+        <v>0.03617357387110683</v>
       </c>
       <c r="D290">
-        <v>0.3513575553894043</v>
+        <v>0.04336833953857422</v>
       </c>
       <c r="E290">
-        <v>0.1657303113570685</v>
+        <v>0.01148718945911594</v>
       </c>
       <c r="F290" t="b">
         <v>1</v>
@@ -28679,16 +28679,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>3.74916877746582</v>
+        <v>0.5639434337615967</v>
       </c>
       <c r="C291">
-        <v>0.1524168746730589</v>
+        <v>0.04610036001195277</v>
       </c>
       <c r="D291">
-        <v>0.1161818504333496</v>
+        <v>0.03260321617126465</v>
       </c>
       <c r="E291">
-        <v>0.03796740253779393</v>
+        <v>0.007097723703316649</v>
       </c>
       <c r="F291" t="b">
         <v>1</v>
@@ -28771,16 +28771,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.4397749423980713</v>
+        <v>0.08565444946289062</v>
       </c>
       <c r="C292">
-        <v>0.2249107519906568</v>
+        <v>0.03769670313408404</v>
       </c>
       <c r="D292">
-        <v>0.09374136924743652</v>
+        <v>0.02385196685791015</v>
       </c>
       <c r="E292">
-        <v>0.04749212918930068</v>
+        <v>0.009286593170337911</v>
       </c>
       <c r="F292" t="b">
         <v>1</v>
@@ -28863,16 +28863,16 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.3935427665710449</v>
+        <v>0.1413929939270019</v>
       </c>
       <c r="C293">
-        <v>0.05116352801551236</v>
+        <v>0.04721146340176018</v>
       </c>
       <c r="D293">
-        <v>0.06275601387023926</v>
+        <v>0.01738481521606445</v>
       </c>
       <c r="E293">
-        <v>0.03931286699375171</v>
+        <v>0.008641156302041458</v>
       </c>
       <c r="F293" t="b">
         <v>1</v>
@@ -28955,16 +28955,16 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.8452075958251953</v>
+        <v>0.1989525318145752</v>
       </c>
       <c r="C294">
-        <v>0.1184871115593518</v>
+        <v>0.04314830997079914</v>
       </c>
       <c r="D294">
-        <v>0.06752629280090332</v>
+        <v>0.02598891258239746</v>
       </c>
       <c r="E294">
-        <v>0.02402063374263117</v>
+        <v>0.01262241642829509</v>
       </c>
       <c r="F294" t="b">
         <v>1</v>
@@ -29047,16 +29047,16 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.9119994640350342</v>
+        <v>0.2431646823883057</v>
       </c>
       <c r="C295">
-        <v>0.0891629480736168</v>
+        <v>0.06874579457064391</v>
       </c>
       <c r="D295">
-        <v>0.05020465850830078</v>
+        <v>0.02685127258300781</v>
       </c>
       <c r="E295">
-        <v>0.01467012486401226</v>
+        <v>0.01355581468157834</v>
       </c>
       <c r="F295" t="b">
         <v>1</v>
@@ -29139,16 +29139,16 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.5965726852416993</v>
+        <v>0.2514087200164795</v>
       </c>
       <c r="C296">
-        <v>0.07556266870318257</v>
+        <v>0.03796765726575769</v>
       </c>
       <c r="D296">
-        <v>0.03685870170593262</v>
+        <v>0.0420684814453125</v>
       </c>
       <c r="E296">
-        <v>0.001825305502290178</v>
+        <v>0.01362840918067297</v>
       </c>
       <c r="F296" t="b">
         <v>1</v>
@@ -29231,16 +29231,16 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.594682264328003</v>
+        <v>0.2708279609680176</v>
       </c>
       <c r="C297">
-        <v>0.03907724509285345</v>
+        <v>0.0397016509077588</v>
       </c>
       <c r="D297">
-        <v>0.06279821395874023</v>
+        <v>0.02374296188354492</v>
       </c>
       <c r="E297">
-        <v>0.01428448654947497</v>
+        <v>0.007312939912934153</v>
       </c>
       <c r="F297" t="b">
         <v>1</v>
@@ -29323,16 +29323,16 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.7528771877288818</v>
+        <v>0.3218065738677979</v>
       </c>
       <c r="C298">
-        <v>0.0511653988624003</v>
+        <v>0.02268870451059306</v>
       </c>
       <c r="D298">
-        <v>0.05589442253112793</v>
+        <v>0.02703661918640137</v>
       </c>
       <c r="E298">
-        <v>0.005753134584425195</v>
+        <v>0.009872420493045465</v>
       </c>
       <c r="F298" t="b">
         <v>1</v>
@@ -29415,16 +29415,16 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.868147611618042</v>
+        <v>0.3932744979858399</v>
       </c>
       <c r="C299">
-        <v>0.09047612491218944</v>
+        <v>0.01480658159709172</v>
       </c>
       <c r="D299">
-        <v>0.06037344932556152</v>
+        <v>0.05283098220825196</v>
       </c>
       <c r="E299">
-        <v>0.01472432732459902</v>
+        <v>0.03077667879533565</v>
       </c>
       <c r="F299" t="b">
         <v>1</v>
@@ -29507,16 +29507,16 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.9934712886810303</v>
+        <v>0.4636519908905029</v>
       </c>
       <c r="C300">
-        <v>0.08987048626031446</v>
+        <v>0.09579092084828039</v>
       </c>
       <c r="D300">
-        <v>0.06179337501525879</v>
+        <v>0.04485964775085449</v>
       </c>
       <c r="E300">
-        <v>0.003566910873584285</v>
+        <v>0.03071464588780445</v>
       </c>
       <c r="F300" t="b">
         <v>1</v>
@@ -29599,16 +29599,16 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.083910131454468</v>
+        <v>0.4071349143981934</v>
       </c>
       <c r="C301">
-        <v>0.2023234073839999</v>
+        <v>0.03395896378108816</v>
       </c>
       <c r="D301">
-        <v>0.05582222938537598</v>
+        <v>0.04552898406982422</v>
       </c>
       <c r="E301">
-        <v>0.0101786261303169</v>
+        <v>0.01763830745574788</v>
       </c>
       <c r="F301" t="b">
         <v>1</v>
